--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\OneDrive\Área de Trabalho\Professional\Cenergia - Emission Simulator\trans\BCDTRtSY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\trans\BCDTRtSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2523C2BF-C77A-4E7D-B6A4-1A3346FD76D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -44,7 +43,7 @@
     <definedName name="ti_tbl_69" localSheetId="12">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -287,13 +286,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_)"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="###0.00_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -994,33 +993,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1152,7 +1151,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
@@ -1244,166 +1243,166 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="154"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="155">
-    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="8"/>
+    <cellStyle name="20% - Accent2 2" xfId="9"/>
+    <cellStyle name="20% - Accent3 2" xfId="10"/>
+    <cellStyle name="20% - Accent4 2" xfId="11"/>
+    <cellStyle name="20% - Accent5 2" xfId="12"/>
+    <cellStyle name="20% - Accent6 2" xfId="13"/>
+    <cellStyle name="40% - Accent1 2" xfId="14"/>
+    <cellStyle name="40% - Accent2 2" xfId="15"/>
+    <cellStyle name="40% - Accent3 2" xfId="16"/>
+    <cellStyle name="40% - Accent4 2" xfId="17"/>
+    <cellStyle name="40% - Accent5 2" xfId="18"/>
+    <cellStyle name="40% - Accent6 2" xfId="19"/>
+    <cellStyle name="60% - Accent1 2" xfId="20"/>
+    <cellStyle name="60% - Accent2 2" xfId="21"/>
+    <cellStyle name="60% - Accent3 2" xfId="22"/>
+    <cellStyle name="60% - Accent4 2" xfId="23"/>
+    <cellStyle name="60% - Accent5 2" xfId="24"/>
+    <cellStyle name="60% - Accent6 2" xfId="25"/>
+    <cellStyle name="Accent1 2" xfId="26"/>
+    <cellStyle name="Accent2 2" xfId="27"/>
+    <cellStyle name="Accent3 2" xfId="28"/>
+    <cellStyle name="Accent4 2" xfId="29"/>
+    <cellStyle name="Accent5 2" xfId="30"/>
+    <cellStyle name="Accent6 2" xfId="31"/>
+    <cellStyle name="Bad 2" xfId="32"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="33"/>
+    <cellStyle name="Calculation 2" xfId="34"/>
+    <cellStyle name="Check Cell 2" xfId="35"/>
+    <cellStyle name="Column heading" xfId="36"/>
+    <cellStyle name="Comma 2" xfId="37"/>
+    <cellStyle name="Comma 2 2" xfId="38"/>
+    <cellStyle name="Comma 3" xfId="39"/>
+    <cellStyle name="Comma 4" xfId="40"/>
+    <cellStyle name="Comma 5" xfId="41"/>
+    <cellStyle name="Comma 6" xfId="42"/>
+    <cellStyle name="Comma 7" xfId="43"/>
+    <cellStyle name="Comma 8" xfId="44"/>
+    <cellStyle name="Corner heading" xfId="45"/>
+    <cellStyle name="Currency 2" xfId="46"/>
+    <cellStyle name="Currency 3" xfId="47"/>
+    <cellStyle name="Currency 3 2" xfId="48"/>
+    <cellStyle name="Data" xfId="49"/>
+    <cellStyle name="Data 2" xfId="50"/>
+    <cellStyle name="Data no deci" xfId="51"/>
+    <cellStyle name="Data Superscript" xfId="52"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
+    <cellStyle name="Explanatory Text 2" xfId="54"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56"/>
+    <cellStyle name="Good 2" xfId="57"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Heading 1 2" xfId="59"/>
+    <cellStyle name="Heading 2 2" xfId="60"/>
+    <cellStyle name="Heading 3 2" xfId="61"/>
+    <cellStyle name="Heading 4 2" xfId="62"/>
+    <cellStyle name="Hed Side" xfId="63"/>
+    <cellStyle name="Hed Side 2" xfId="64"/>
+    <cellStyle name="Hed Side bold" xfId="65"/>
+    <cellStyle name="Hed Side Indent" xfId="66"/>
+    <cellStyle name="Hed Side Regular" xfId="67"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
+    <cellStyle name="Hed Top" xfId="69"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71"/>
     <cellStyle name="Hyperlink" xfId="154" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="72"/>
+    <cellStyle name="Input 2" xfId="73"/>
+    <cellStyle name="Linked Cell 2" xfId="74"/>
+    <cellStyle name="Neutral 2" xfId="75"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 10" xfId="76"/>
+    <cellStyle name="Normal 11" xfId="77"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="78"/>
+    <cellStyle name="Normal 2 3" xfId="79"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Normal 3 2" xfId="81"/>
+    <cellStyle name="Normal 3 2 2" xfId="82"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
+    <cellStyle name="Normal 3 2 3" xfId="84"/>
+    <cellStyle name="Normal 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 3 2" xfId="86"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
+    <cellStyle name="Normal 3 3 3" xfId="88"/>
+    <cellStyle name="Normal 3 4" xfId="89"/>
+    <cellStyle name="Normal 3 4 2" xfId="90"/>
+    <cellStyle name="Normal 3 5" xfId="91"/>
+    <cellStyle name="Normal 3 6" xfId="92"/>
+    <cellStyle name="Normal 3 7" xfId="93"/>
+    <cellStyle name="Normal 4" xfId="94"/>
+    <cellStyle name="Normal 4 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 2" xfId="96"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
+    <cellStyle name="Normal 4 2 3" xfId="98"/>
+    <cellStyle name="Normal 4 3" xfId="99"/>
+    <cellStyle name="Normal 4 3 2" xfId="100"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
+    <cellStyle name="Normal 4 3 3" xfId="102"/>
+    <cellStyle name="Normal 4 4" xfId="103"/>
+    <cellStyle name="Normal 4 4 2" xfId="104"/>
+    <cellStyle name="Normal 4 5" xfId="105"/>
+    <cellStyle name="Normal 4 6" xfId="106"/>
+    <cellStyle name="Normal 4 7" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 5 2" xfId="109"/>
+    <cellStyle name="Normal 5 3" xfId="110"/>
+    <cellStyle name="Normal 6" xfId="111"/>
+    <cellStyle name="Normal 6 2" xfId="112"/>
+    <cellStyle name="Normal 7" xfId="113"/>
+    <cellStyle name="Normal 7 2" xfId="114"/>
+    <cellStyle name="Normal 8" xfId="115"/>
+    <cellStyle name="Normal 9" xfId="116"/>
+    <cellStyle name="Note 2" xfId="117"/>
+    <cellStyle name="Note 2 2" xfId="118"/>
+    <cellStyle name="Output 2" xfId="119"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Parent row 2" xfId="120"/>
     <cellStyle name="Percent" xfId="153" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Percent 2" xfId="121"/>
+    <cellStyle name="Percent 2 2" xfId="122"/>
+    <cellStyle name="Percent 3" xfId="123"/>
+    <cellStyle name="Percent 3 2" xfId="124"/>
+    <cellStyle name="Percent 4" xfId="125"/>
+    <cellStyle name="Reference" xfId="126"/>
+    <cellStyle name="Row heading" xfId="127"/>
+    <cellStyle name="Source Hed" xfId="128"/>
+    <cellStyle name="Source Letter" xfId="129"/>
+    <cellStyle name="Source Superscript" xfId="130"/>
+    <cellStyle name="Source Superscript 2" xfId="131"/>
+    <cellStyle name="Source Text" xfId="132"/>
+    <cellStyle name="Source Text 2" xfId="133"/>
+    <cellStyle name="State" xfId="134"/>
+    <cellStyle name="Superscript" xfId="135"/>
+    <cellStyle name="Table Data" xfId="136"/>
+    <cellStyle name="Table Head Top" xfId="137"/>
+    <cellStyle name="Table Hed Side" xfId="138"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Table title 2" xfId="139"/>
+    <cellStyle name="Title 2" xfId="140"/>
+    <cellStyle name="Title Text" xfId="141"/>
+    <cellStyle name="Title Text 1" xfId="142"/>
+    <cellStyle name="Title Text 2" xfId="143"/>
+    <cellStyle name="Title-1" xfId="144"/>
+    <cellStyle name="Title-2" xfId="145"/>
+    <cellStyle name="Title-3" xfId="146"/>
+    <cellStyle name="Total 2" xfId="147"/>
+    <cellStyle name="Warning Text 2" xfId="148"/>
+    <cellStyle name="Wrap" xfId="149"/>
+    <cellStyle name="Wrap Bold" xfId="150"/>
+    <cellStyle name="Wrap Title" xfId="151"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1673,23 +1672,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1725,23 +1707,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1917,17 +1882,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="107.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384">
@@ -51167,8 +51132,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{75ADB7EC-1F18-41B4-A7C2-094942932F50}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{E4C5FDA2-93FE-47A2-80B7-5003F1668387}"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -51176,16 +51141,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFE8D69-DDE7-4E2D-BE01-52E7FA305789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -51569,148 +51534,140 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <f>E9/$D$9</f>
-        <v>1.0473793684004054</v>
-      </c>
       <c r="F10">
-        <f t="shared" ref="F10:AM10" si="0">F9/$D$9</f>
-        <v>1.0947587368008105</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1.1421381052012161</v>
+        <f>G9/$F$9</f>
+        <v>1.0432783651846991</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>1.1895174736016212</v>
+        <f t="shared" ref="H10:AM10" si="0">H9/$F$9</f>
+        <v>1.0865567303693981</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>1.2368968420020265</v>
+        <v>1.1298350955540972</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>1.2915033181862758</v>
+        <v>1.1797150137028434</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>1.3461097943705249</v>
+        <v>1.2295949318515895</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>1.4007162705547744</v>
+        <v>1.2794748500003359</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>1.4553227467390235</v>
+        <v>1.329354768149082</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>1.5099292229232728</v>
+        <v>1.3792346862978284</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>1.5645356991075219</v>
+        <v>1.4291146044465743</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>1.6191421752917712</v>
+        <v>1.4789945225953207</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>1.6737486514760205</v>
+        <v>1.5288744407440671</v>
       </c>
       <c r="R10">
         <f t="shared" si="0"/>
-        <v>1.7283551276602696</v>
+        <v>1.578754358892813</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
-        <v>1.7829616038445191</v>
+        <v>1.6286342770415594</v>
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>1.8747572248193791</v>
+        <v>1.712484369202607</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>1.9665528457942396</v>
+        <v>1.7963344613636552</v>
       </c>
       <c r="V10">
         <f t="shared" si="0"/>
-        <v>2.0583484667690994</v>
+        <v>1.8801845535247028</v>
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
-        <v>2.1501440877439602</v>
+        <v>1.9640346456857507</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>2.2419397087188204</v>
+        <v>2.0478847378467986</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>2.3337353296936807</v>
+        <v>2.1317348300078467</v>
       </c>
       <c r="Z10">
         <f t="shared" si="0"/>
-        <v>2.425530950668541</v>
+        <v>2.2155849221688944</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
-        <v>2.5173265716434008</v>
+        <v>2.299435014329942</v>
       </c>
       <c r="AB10">
         <f t="shared" si="0"/>
-        <v>2.6091221926182611</v>
+        <v>2.3832851064909897</v>
       </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>2.7009178135931213</v>
+        <v>2.4671351986520373</v>
       </c>
       <c r="AD10">
         <f t="shared" si="0"/>
-        <v>2.838143123344993</v>
+        <v>2.5924827342678594</v>
       </c>
       <c r="AE10">
         <f t="shared" si="0"/>
-        <v>2.9753684330968646</v>
+        <v>2.7178302698836809</v>
       </c>
       <c r="AF10">
         <f t="shared" si="0"/>
-        <v>3.1125937428487362</v>
+        <v>2.8431778054995029</v>
       </c>
       <c r="AG10">
         <f t="shared" si="0"/>
-        <v>3.2498190526006079</v>
+        <v>2.9685253411153245</v>
       </c>
       <c r="AH10">
         <f t="shared" si="0"/>
-        <v>3.3870443623524795</v>
+        <v>3.0938728767311465</v>
       </c>
       <c r="AI10">
         <f t="shared" si="0"/>
-        <v>3.5242696721043512</v>
+        <v>3.2192204123469681</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="0"/>
-        <v>3.6614949818562224</v>
+        <v>3.3445679479627892</v>
       </c>
       <c r="AK10">
         <f t="shared" si="0"/>
-        <v>3.7987202916080944</v>
+        <v>3.4699154835786112</v>
       </c>
       <c r="AL10">
         <f t="shared" si="0"/>
-        <v>3.9359456013599656</v>
+        <v>3.5952630191944328</v>
       </c>
       <c r="AM10">
         <f t="shared" si="0"/>
-        <v>4.0731709111118377</v>
+        <v>3.7206105548102548</v>
       </c>
     </row>
   </sheetData>
@@ -51719,16 +51676,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D494F5A-8DA1-485D-A05D-B1FFF1ED8266}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:AM10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="40.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -52112,148 +52069,140 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <f>E9/$D$9</f>
-        <v>1.0092236241697925</v>
-      </c>
       <c r="F10">
-        <f t="shared" ref="F10:AM10" si="0">F9/$D$9</f>
-        <v>1.0184472483395852</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1.0276708725093779</v>
+        <f>G9/$F$9</f>
+        <v>1.0090565556388222</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>1.0368944966791707</v>
+        <f t="shared" ref="H10:AM10" si="0">H9/$F$9</f>
+        <v>1.0181131112776443</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>1.0461181208489632</v>
+        <v>1.0271696669164661</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>1.0360468326269467</v>
+        <v>1.0172808010587242</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>1.0259755444049301</v>
+        <v>1.0073919352009821</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>1.0159042561829137</v>
+        <v>0.99750306934324051</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>1.0058329679608971</v>
+        <v>0.98761420348549855</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>0.99576167973888052</v>
+        <v>0.9777253376277566</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>0.985690391516864</v>
+        <v>0.96783647177001453</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>0.97561910329484736</v>
+        <v>0.95794760591227257</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>0.96554781507283105</v>
+        <v>0.94805874005453084</v>
       </c>
       <c r="R10">
         <f t="shared" si="0"/>
-        <v>0.95547652685081452</v>
+        <v>0.93816987419678888</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
-        <v>0.94540523862879788</v>
+        <v>0.92828100833904692</v>
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>0.95968236956204034</v>
+        <v>0.94229953601097005</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>0.97395950049528279</v>
+        <v>0.95631806368289318</v>
       </c>
       <c r="V10">
         <f t="shared" si="0"/>
-        <v>0.98823663142852503</v>
+        <v>0.97033659135481609</v>
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
-        <v>1.0025137623617675</v>
+        <v>0.98435511902673922</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>1.0167908932950098</v>
+        <v>0.99837364669866235</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>1.0310680242282524</v>
+        <v>1.0123921743705855</v>
       </c>
       <c r="Z10">
         <f t="shared" si="0"/>
-        <v>1.0453451551614947</v>
+        <v>1.0264107020425086</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
-        <v>1.0596222860947371</v>
+        <v>1.0404292297144315</v>
       </c>
       <c r="AB10">
         <f t="shared" si="0"/>
-        <v>1.0738994170279794</v>
+        <v>1.0544477573863547</v>
       </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>1.0881765479612218</v>
+        <v>1.0684662850582778</v>
       </c>
       <c r="AD10">
         <f t="shared" si="0"/>
-        <v>1.115605462723892</v>
+        <v>1.0953983768356268</v>
       </c>
       <c r="AE10">
         <f t="shared" si="0"/>
-        <v>1.1430343774865626</v>
+        <v>1.122330468612976</v>
       </c>
       <c r="AF10">
         <f t="shared" si="0"/>
-        <v>1.1704632922492328</v>
+        <v>1.1492625603903248</v>
       </c>
       <c r="AG10">
         <f t="shared" si="0"/>
-        <v>1.1978922070119031</v>
+        <v>1.176194652167674</v>
       </c>
       <c r="AH10">
         <f t="shared" si="0"/>
-        <v>1.2253211217745734</v>
+        <v>1.2031267439450231</v>
       </c>
       <c r="AI10">
         <f t="shared" si="0"/>
-        <v>1.2527500365372437</v>
+        <v>1.2300588357223721</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="0"/>
-        <v>1.280178951299914</v>
+        <v>1.2569909274997211</v>
       </c>
       <c r="AK10">
         <f t="shared" si="0"/>
-        <v>1.3076078660625843</v>
+        <v>1.2839230192770701</v>
       </c>
       <c r="AL10">
         <f t="shared" si="0"/>
-        <v>1.3350367808252548</v>
+        <v>1.3108551110544193</v>
       </c>
       <c r="AM10">
         <f t="shared" si="0"/>
-        <v>1.3624656955879249</v>
+        <v>1.3377872028317683</v>
       </c>
     </row>
   </sheetData>
@@ -52262,1023 +52211,969 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:35">
       <c r="B1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="H1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="I1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="J1">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="K1">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="L1">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="M1">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="N1">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="O1">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="P1">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="Q1">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="R1">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="S1">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="T1">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="U1">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="V1">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="W1">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="X1">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="Y1">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="Z1">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="AA1">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="AB1">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="AC1">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="AD1">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="AE1">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="AF1">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="AG1">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="AH1">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="AI1">
-        <v>2048</v>
-      </c>
-      <c r="AJ1">
-        <v>2049</v>
-      </c>
-      <c r="AK1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="20">
-        <f>'psgr-Road'!B27</f>
+        <f>'psgr-Road'!D27</f>
         <v>1</v>
       </c>
       <c r="C2" s="20">
-        <f>'psgr-Road'!C27</f>
-        <v>1.060092660644903</v>
+        <f>'psgr-Road'!E27</f>
+        <v>1.054145003793953</v>
       </c>
       <c r="D2" s="20">
-        <f>'psgr-Road'!D27</f>
-        <v>1.1205587089237978</v>
+        <f>'psgr-Road'!F27</f>
+        <v>1.1083980496737968</v>
       </c>
       <c r="E2" s="20">
-        <f>'psgr-Road'!E27</f>
-        <v>1.181231364469824</v>
+        <f>'psgr-Road'!G27</f>
+        <v>1.158770587496893</v>
       </c>
       <c r="F2" s="20">
-        <f>'psgr-Road'!F27</f>
-        <v>1.2420250875161254</v>
+        <f>'psgr-Road'!H27</f>
+        <v>1.2084792587433717</v>
       </c>
       <c r="G2" s="20">
-        <f>'psgr-Road'!G27</f>
-        <v>1.298470473464389</v>
+        <f>'psgr-Road'!I27</f>
+        <v>1.2578551355389891</v>
       </c>
       <c r="H2" s="20">
-        <f>'psgr-Road'!H27</f>
-        <v>1.3541719579386609</v>
+        <f>'psgr-Road'!J27</f>
+        <v>1.3069269087409185</v>
       </c>
       <c r="I2" s="20">
-        <f>'psgr-Road'!I27</f>
-        <v>1.4095005266927383</v>
+        <f>'psgr-Road'!K27</f>
+        <v>1.3557593209484895</v>
       </c>
       <c r="J2" s="20">
-        <f>'psgr-Road'!J27</f>
-        <v>1.4644883295164939</v>
+        <f>'psgr-Road'!L27</f>
+        <v>1.4029359894168549</v>
       </c>
       <c r="K2" s="20">
-        <f>'psgr-Road'!K27</f>
-        <v>1.5192079142934443</v>
+        <f>'psgr-Road'!M27</f>
+        <v>1.4472319210584128</v>
       </c>
       <c r="L2" s="20">
-        <f>'psgr-Road'!L27</f>
-        <v>1.5720721410036818</v>
+        <f>'psgr-Road'!N27</f>
+        <v>1.4888457860416036</v>
       </c>
       <c r="M2" s="20">
-        <f>'psgr-Road'!M27</f>
-        <v>1.6217083329745228</v>
+        <f>'psgr-Road'!O27</f>
+        <v>1.5279062897241729</v>
       </c>
       <c r="N2" s="20">
-        <f>'psgr-Road'!N27</f>
-        <v>1.6683391117934163</v>
+        <f>'psgr-Road'!P27</f>
+        <v>1.5645020255976527</v>
       </c>
       <c r="O2" s="20">
-        <f>'psgr-Road'!O27</f>
-        <v>1.7121086993698695</v>
+        <f>'psgr-Road'!Q27</f>
+        <v>1.5987482231098333</v>
       </c>
       <c r="P2" s="20">
-        <f>'psgr-Road'!P27</f>
-        <v>1.7531163699123722</v>
+        <f>'psgr-Road'!R27</f>
+        <v>1.6308511699298465</v>
       </c>
       <c r="Q2" s="20">
-        <f>'psgr-Road'!Q27</f>
-        <v>1.7914912447821709</v>
+        <f>'psgr-Road'!S27</f>
+        <v>1.6610044794291805</v>
       </c>
       <c r="R2" s="20">
-        <f>'psgr-Road'!R27</f>
-        <v>1.827464481423454</v>
+        <f>'psgr-Road'!T27</f>
+        <v>1.6893333513176148</v>
       </c>
       <c r="S2" s="20">
-        <f>'psgr-Road'!S27</f>
-        <v>1.8612530349858074</v>
+        <f>'psgr-Road'!U27</f>
+        <v>1.7159630623792197</v>
       </c>
       <c r="T2" s="20">
-        <f>'psgr-Road'!T27</f>
-        <v>1.892997199094379</v>
+        <f>'psgr-Road'!V27</f>
+        <v>1.7404324659206454</v>
       </c>
       <c r="U2" s="20">
-        <f>'psgr-Road'!U27</f>
-        <v>1.9228373537405847</v>
+        <f>'psgr-Road'!W27</f>
+        <v>1.7623405431373136</v>
       </c>
       <c r="V2" s="20">
-        <f>'psgr-Road'!V27</f>
-        <v>1.9502567569811002</v>
+        <f>'psgr-Road'!X27</f>
+        <v>1.7819126623277837</v>
       </c>
       <c r="W2" s="20">
-        <f>'psgr-Road'!W27</f>
-        <v>1.9748060437020127</v>
+        <f>'psgr-Road'!Y27</f>
+        <v>1.799361171470476</v>
       </c>
       <c r="X2" s="20">
-        <f>'psgr-Road'!X27</f>
-        <v>1.9967377523129886</v>
+        <f>'psgr-Road'!Z27</f>
+        <v>1.8148755275137232</v>
       </c>
       <c r="Y2" s="20">
-        <f>'psgr-Road'!Y27</f>
-        <v>2.0162898311905693</v>
+        <f>'psgr-Road'!AA27</f>
+        <v>1.8286399797079298</v>
       </c>
       <c r="Z2" s="20">
-        <f>'psgr-Road'!Z27</f>
-        <v>2.0336745779681742</v>
+        <f>'psgr-Road'!AB27</f>
+        <v>1.8408278118549375</v>
       </c>
       <c r="AA2" s="20">
-        <f>'psgr-Road'!AA27</f>
-        <v>2.0490984547479578</v>
+        <f>'psgr-Road'!AC27</f>
+        <v>1.8515895488751064</v>
       </c>
       <c r="AB2" s="20">
-        <f>'psgr-Road'!AB27</f>
-        <v>2.0627556362031885</v>
+        <f>'psgr-Road'!AD27</f>
+        <v>1.8610807883606995</v>
       </c>
       <c r="AC2" s="20">
-        <f>'psgr-Road'!AC27</f>
-        <v>2.0748147943442863</v>
+        <f>'psgr-Road'!AE27</f>
+        <v>1.8693960856531935</v>
       </c>
       <c r="AD2" s="20">
-        <f>'psgr-Road'!AD27</f>
-        <v>2.0854502854083492</v>
+        <f>'psgr-Road'!AF27</f>
+        <v>1.8766667102537264</v>
       </c>
       <c r="AE2" s="20">
-        <f>'psgr-Road'!AE27</f>
-        <v>2.0947680642067437</v>
+        <f>'psgr-Road'!AG27</f>
+        <v>1.8830144441096603</v>
       </c>
       <c r="AF2" s="20">
-        <f>'psgr-Road'!AF27</f>
-        <v>2.102915225922187</v>
+        <f>'psgr-Road'!AH27</f>
+        <v>1.8885532069116984</v>
       </c>
       <c r="AG2" s="20">
-        <f>'psgr-Road'!AG27</f>
-        <v>2.1100282343763839</v>
+        <f>'psgr-Road'!AI27</f>
+        <v>1.8933885545483444</v>
       </c>
       <c r="AH2" s="20">
-        <f>'psgr-Road'!AH27</f>
-        <v>2.1162347432708706</v>
+        <f>'psgr-Road'!AJ27</f>
+        <v>1.8976110746064154</v>
       </c>
       <c r="AI2" s="20">
-        <f>'psgr-Road'!AI27</f>
-        <v>2.1216530341757887</v>
-      </c>
-      <c r="AJ2" s="20">
-        <f>'psgr-Road'!AJ27</f>
-        <v>2.1263846158004656</v>
-      </c>
-      <c r="AK2" s="20">
         <f>'psgr-Road'!AK27</f>
-        <v>2.1425888954257077</v>
+        <v>1.912071967637897</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="20">
-        <f>'psgr-Road'!B29</f>
+        <f>'psgr-Road'!D29</f>
         <v>1</v>
       </c>
       <c r="C3" s="20">
-        <f>'psgr-Road'!C29</f>
-        <v>1.0416450950630256</v>
+        <f>'psgr-Road'!E29</f>
+        <v>1.0392499148289038</v>
       </c>
       <c r="D3" s="20">
-        <f>'psgr-Road'!D29</f>
-        <v>1.0836962444628684</v>
+        <f>'psgr-Road'!F29</f>
+        <v>1.0786638926412064</v>
       </c>
       <c r="E3" s="20">
-        <f>'psgr-Road'!E29</f>
-        <v>1.1262312297584391</v>
+        <f>'psgr-Road'!G29</f>
+        <v>1.1147079154608046</v>
       </c>
       <c r="F3" s="20">
-        <f>'psgr-Road'!F29</f>
-        <v>1.1689440094929742</v>
+        <f>'psgr-Road'!H29</f>
+        <v>1.1501270204628791</v>
       </c>
       <c r="G3" s="20">
-        <f>'psgr-Road'!G29</f>
-        <v>1.2080047816579067</v>
+        <f>'psgr-Road'!I29</f>
+        <v>1.1852311279275212</v>
       </c>
       <c r="H3" s="20">
-        <f>'psgr-Road'!H29</f>
-        <v>1.2463883327308907</v>
+        <f>'psgr-Road'!J29</f>
+        <v>1.2198512427810557</v>
       </c>
       <c r="I3" s="20">
-        <f>'psgr-Road'!I29</f>
-        <v>1.2844305221555443</v>
+        <f>'psgr-Road'!K29</f>
+        <v>1.2538816660279617</v>
       </c>
       <c r="J3" s="20">
-        <f>'psgr-Road'!J29</f>
-        <v>1.3219482106051927</v>
+        <f>'psgr-Road'!L29</f>
+        <v>1.2873661220277623</v>
       </c>
       <c r="K3" s="20">
-        <f>'psgr-Road'!K29</f>
-        <v>1.3588268524753468</v>
+        <f>'psgr-Road'!M29</f>
+        <v>1.3202226796744745</v>
       </c>
       <c r="L3" s="20">
-        <f>'psgr-Road'!L29</f>
-        <v>1.395113831690213</v>
+        <f>'psgr-Road'!N29</f>
+        <v>1.352725739762237</v>
       </c>
       <c r="M3" s="20">
-        <f>'psgr-Road'!M29</f>
-        <v>1.4307203598179328</v>
+        <f>'psgr-Road'!O29</f>
+        <v>1.3848967084959081</v>
       </c>
       <c r="N3" s="20">
-        <f>'psgr-Road'!N29</f>
-        <v>1.4659438039685917</v>
+        <f>'psgr-Road'!P29</f>
+        <v>1.416746489229491</v>
       </c>
       <c r="O3" s="20">
-        <f>'psgr-Road'!O29</f>
-        <v>1.5008073619660034</v>
+        <f>'psgr-Road'!Q29</f>
+        <v>1.4483080497971785</v>
       </c>
       <c r="P3" s="20">
-        <f>'psgr-Road'!P29</f>
-        <v>1.5353228497339531</v>
+        <f>'psgr-Road'!R29</f>
+        <v>1.4797234405909385</v>
       </c>
       <c r="Q3" s="20">
-        <f>'psgr-Road'!Q29</f>
-        <v>1.5695259943905435</v>
+        <f>'psgr-Road'!S29</f>
+        <v>1.5110799911821207</v>
       </c>
       <c r="R3" s="20">
-        <f>'psgr-Road'!R29</f>
-        <v>1.6035707354120745</v>
+        <f>'psgr-Road'!T29</f>
+        <v>1.5425451564001578</v>
       </c>
       <c r="S3" s="20">
-        <f>'psgr-Road'!S29</f>
-        <v>1.6375517115270486</v>
+        <f>'psgr-Road'!U29</f>
+        <v>1.5741741536691403</v>
       </c>
       <c r="T3" s="20">
-        <f>'psgr-Road'!T29</f>
-        <v>1.6716503929052391</v>
+        <f>'psgr-Road'!V29</f>
+        <v>1.6060391286863365</v>
       </c>
       <c r="U3" s="20">
-        <f>'psgr-Road'!U29</f>
-        <v>1.7059266184617619</v>
+        <f>'psgr-Road'!W29</f>
+        <v>1.6379848687644747</v>
       </c>
       <c r="V3" s="20">
-        <f>'psgr-Road'!V29</f>
-        <v>1.7404585722178003</v>
+        <f>'psgr-Road'!X29</f>
+        <v>1.6702093595942584</v>
       </c>
       <c r="W3" s="20">
-        <f>'psgr-Road'!W29</f>
-        <v>1.7750780507670658</v>
+        <f>'psgr-Road'!Y29</f>
+        <v>1.7027393300374678</v>
       </c>
       <c r="X3" s="20">
-        <f>'psgr-Road'!X29</f>
-        <v>1.8099996104590306</v>
+        <f>'psgr-Road'!Z29</f>
+        <v>1.735361671295079</v>
       </c>
       <c r="Y3" s="20">
-        <f>'psgr-Road'!Y29</f>
-        <v>1.8452522172608248</v>
+        <f>'psgr-Road'!AA29</f>
+        <v>1.7679019327666992</v>
       </c>
       <c r="Z3" s="20">
-        <f>'psgr-Road'!Z29</f>
-        <v>1.8806049259672841</v>
+        <f>'psgr-Road'!AB29</f>
+        <v>1.8003555363804511</v>
       </c>
       <c r="AA3" s="20">
-        <f>'psgr-Road'!AA29</f>
-        <v>1.9158686851179185</v>
+        <f>'psgr-Road'!AC29</f>
+        <v>1.8326639674243534</v>
       </c>
       <c r="AB3" s="20">
-        <f>'psgr-Road'!AB29</f>
-        <v>1.9510385334734281</v>
+        <f>'psgr-Road'!AD29</f>
+        <v>1.8648240800156857</v>
       </c>
       <c r="AC3" s="20">
-        <f>'psgr-Road'!AC29</f>
-        <v>1.9860510588601927</v>
+        <f>'psgr-Road'!AE29</f>
+        <v>1.8968041676526035</v>
       </c>
       <c r="AD3" s="20">
-        <f>'psgr-Road'!AD29</f>
-        <v>2.0209028520969223</v>
+        <f>'psgr-Road'!AF29</f>
+        <v>1.9285351984305636</v>
       </c>
       <c r="AE3" s="20">
-        <f>'psgr-Road'!AE29</f>
-        <v>2.0555595529666437</v>
+        <f>'psgr-Road'!AG29</f>
+        <v>1.9600077156625964</v>
       </c>
       <c r="AF3" s="20">
-        <f>'psgr-Road'!AF29</f>
-        <v>2.0899463518536545</v>
+        <f>'psgr-Road'!AH29</f>
+        <v>1.9912183563835897</v>
       </c>
       <c r="AG3" s="20">
-        <f>'psgr-Road'!AG29</f>
-        <v>2.1240530005818012</v>
+        <f>'psgr-Road'!AI29</f>
+        <v>2.0221406210971238</v>
       </c>
       <c r="AH3" s="20">
-        <f>'psgr-Road'!AH29</f>
-        <v>2.157875854718422</v>
+        <f>'psgr-Road'!AJ29</f>
+        <v>2.0527447847118165</v>
       </c>
       <c r="AI3" s="20">
-        <f>'psgr-Road'!AI29</f>
-        <v>2.1913861968587653</v>
-      </c>
-      <c r="AJ3" s="20">
-        <f>'psgr-Road'!AJ29</f>
-        <v>2.2245518140329352</v>
-      </c>
-      <c r="AK3" s="20">
         <f>'psgr-Road'!AK29</f>
-        <v>2.2694334710188571</v>
+        <v>2.0941601326151096</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="20">
-        <f>'psgr-Air'!D11</f>
+        <f>'psgr-Air'!F11</f>
         <v>1</v>
       </c>
       <c r="C4" s="20">
-        <f>'psgr-Air'!E11</f>
-        <v>1.0840757207428873</v>
+        <f>'psgr-Air'!G11</f>
+        <v>1.08</v>
       </c>
       <c r="D4" s="20">
-        <f>'psgr-Air'!F11</f>
-        <v>1.1664000000000003</v>
+        <f>'psgr-Air'!H11</f>
+        <v>1.1663999999999999</v>
       </c>
       <c r="E4" s="20">
-        <f>'psgr-Air'!G11</f>
-        <v>1.2597120000000006</v>
+        <f>'psgr-Air'!I11</f>
+        <v>1.2307739655844654</v>
       </c>
       <c r="F4" s="20">
-        <f>'psgr-Air'!H11</f>
-        <v>1.3604889600000003</v>
+        <f>'psgr-Air'!J11</f>
+        <v>1.298442297478583</v>
       </c>
       <c r="G4" s="20">
-        <f>'psgr-Air'!I11</f>
-        <v>1.435574753457721</v>
+        <f>'psgr-Air'!K11</f>
+        <v>1.3698310551124167</v>
       </c>
       <c r="H4" s="20">
-        <f>'psgr-Air'!J11</f>
-        <v>1.5145030957790198</v>
+        <f>'psgr-Air'!L11</f>
+        <v>1.4451447886395943</v>
       </c>
       <c r="I4" s="20">
-        <f>'psgr-Air'!K11</f>
-        <v>1.5977709426831235</v>
+        <f>'psgr-Air'!M11</f>
+        <v>1.5245992944442244</v>
       </c>
       <c r="J4" s="20">
-        <f>'psgr-Air'!L11</f>
-        <v>1.6856168814692234</v>
+        <f>'psgr-Air'!N11</f>
+        <v>1.6084222334621114</v>
       </c>
       <c r="K4" s="20">
-        <f>'psgr-Air'!M11</f>
-        <v>1.778292617039744</v>
+        <f>'psgr-Air'!O11</f>
+        <v>1.6914766361809541</v>
       </c>
       <c r="L4" s="20">
-        <f>'psgr-Air'!N11</f>
-        <v>1.8760636931102075</v>
+        <f>'psgr-Air'!P11</f>
+        <v>1.7788197347829269</v>
       </c>
       <c r="M4" s="20">
-        <f>'psgr-Air'!O11</f>
-        <v>1.9729383484414655</v>
+        <f>'psgr-Air'!Q11</f>
+        <v>1.8706729854675312</v>
       </c>
       <c r="N4" s="20">
-        <f>'psgr-Air'!P11</f>
-        <v>2.0748153386508066</v>
+        <f>'psgr-Air'!R11</f>
+        <v>1.9672692798098774</v>
       </c>
       <c r="O4" s="20">
-        <f>'psgr-Air'!Q11</f>
-        <v>2.1819529702493292</v>
+        <f>'psgr-Air'!S11</f>
+        <v>2.0688535352513373</v>
       </c>
       <c r="P4" s="20">
-        <f>'psgr-Air'!R11</f>
-        <v>2.2946228879702417</v>
+        <f>'psgr-Air'!T11</f>
+        <v>2.1428492745418226</v>
       </c>
       <c r="Q4" s="20">
-        <f>'psgr-Air'!S11</f>
-        <v>2.4131107635171607</v>
+        <f>'psgr-Air'!U11</f>
+        <v>2.2194915856363773</v>
       </c>
       <c r="R4" s="20">
-        <f>'psgr-Air'!T11</f>
-        <v>2.4994193938255829</v>
+        <f>'psgr-Air'!V11</f>
+        <v>2.2988751272596959</v>
       </c>
       <c r="S4" s="20">
-        <f>'psgr-Air'!U11</f>
-        <v>2.5888149854862714</v>
+        <f>'psgr-Air'!W11</f>
+        <v>2.3810979437518376</v>
       </c>
       <c r="T4" s="20">
-        <f>'psgr-Air'!V11</f>
-        <v>2.6814079484357101</v>
+        <f>'psgr-Air'!X11</f>
+        <v>2.4662615861599826</v>
       </c>
       <c r="U4" s="20">
-        <f>'psgr-Air'!W11</f>
-        <v>2.7773126415921441</v>
+        <f>'psgr-Air'!Y11</f>
+        <v>2.5469145514577023</v>
       </c>
       <c r="V4" s="20">
-        <f>'psgr-Air'!X11</f>
-        <v>2.8766475140970047</v>
+        <f>'psgr-Air'!Z11</f>
+        <v>2.6302050718500709</v>
       </c>
       <c r="W4" s="20">
-        <f>'psgr-Air'!Y11</f>
-        <v>2.9707211328202652</v>
+        <f>'psgr-Air'!AA11</f>
+        <v>2.7162194020315287</v>
       </c>
       <c r="X4" s="20">
-        <f>'psgr-Air'!Z11</f>
-        <v>3.0678711958059237</v>
+        <f>'psgr-Air'!AB11</f>
+        <v>2.8050466174422586</v>
       </c>
       <c r="Y4" s="20">
-        <f>'psgr-Air'!AA11</f>
-        <v>3.1681983105295761</v>
+        <f>'psgr-Air'!AC11</f>
+        <v>2.8967787065136821</v>
       </c>
       <c r="Z4" s="20">
-        <f>'psgr-Air'!AB11</f>
-        <v>3.2718063745846515</v>
+        <f>'psgr-Air'!AD11</f>
+        <v>2.9831236035004145</v>
       </c>
       <c r="AA4" s="20">
-        <f>'psgr-Air'!AC11</f>
-        <v>3.3788026832775597</v>
+        <f>'psgr-Air'!AE11</f>
+        <v>3.072042201135694</v>
       </c>
       <c r="AB4" s="20">
-        <f>'psgr-Air'!AD11</f>
-        <v>3.479515371122885</v>
+        <f>'psgr-Air'!AF11</f>
+        <v>3.1636112142603441</v>
       </c>
       <c r="AC4" s="20">
-        <f>'psgr-Air'!AE11</f>
-        <v>3.583230023404675</v>
+        <f>'psgr-Air'!AG11</f>
+        <v>3.2579096443707121</v>
       </c>
       <c r="AD4" s="20">
-        <f>'psgr-Air'!AF11</f>
-        <v>3.690036120313267</v>
+        <f>'psgr-Air'!AH11</f>
+        <v>3.355018847777496</v>
       </c>
       <c r="AE4" s="20">
-        <f>'psgr-Air'!AG11</f>
-        <v>3.800025809194</v>
+        <f>'psgr-Air'!AI11</f>
+        <v>3.4460334969916384</v>
       </c>
       <c r="AF4" s="20">
-        <f>'psgr-Air'!AH11</f>
-        <v>3.9132939840476726</v>
+        <f>'psgr-Air'!AJ11</f>
+        <v>3.5395171834146377</v>
       </c>
       <c r="AG4" s="20">
-        <f>'psgr-Air'!AI11</f>
-        <v>4.0194534708910483</v>
+        <f>'psgr-Air'!AK11</f>
+        <v>3.6355368868655789</v>
       </c>
       <c r="AH4" s="20">
-        <f>'psgr-Air'!AJ11</f>
-        <v>4.1284928427348353</v>
+        <f>'psgr-Air'!AL11</f>
+        <v>3.7341614041860534</v>
       </c>
       <c r="AI4" s="20">
-        <f>'psgr-Air'!AK11</f>
-        <v>4.2404902248400127</v>
-      </c>
-      <c r="AJ4" s="20">
-        <f>'psgr-Air'!AL11</f>
-        <v>4.3555258618426143</v>
-      </c>
-      <c r="AK4" s="20">
         <f>'psgr-Air'!AM11</f>
-        <v>4.4736821752479283</v>
+        <v>3.835461398532173</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="20">
-        <f>'psgr-Rail'!D10</f>
+        <f>'psgr-Rail'!F10</f>
         <v>1</v>
       </c>
       <c r="C5" s="20">
-        <f>'psgr-Rail'!E10</f>
-        <v>1.01</v>
+        <f>'psgr-Rail'!G10</f>
+        <v>1.0098039215686274</v>
       </c>
       <c r="D5" s="20">
-        <f>'psgr-Rail'!F10</f>
-        <v>1.02</v>
+        <f>'psgr-Rail'!H10</f>
+        <v>1.0196078431372548</v>
       </c>
       <c r="E5" s="20">
-        <f>'psgr-Rail'!G10</f>
-        <v>1.03</v>
+        <f>'psgr-Rail'!I10</f>
+        <v>1.0294117647058825</v>
       </c>
       <c r="F5" s="20">
-        <f>'psgr-Rail'!H10</f>
-        <v>1.04</v>
+        <f>'psgr-Rail'!J10</f>
+        <v>1.0980392156862746</v>
       </c>
       <c r="G5" s="20">
-        <f>'psgr-Rail'!I10</f>
-        <v>1.05</v>
+        <f>'psgr-Rail'!K10</f>
+        <v>1.1666666666666665</v>
       </c>
       <c r="H5" s="20">
-        <f>'psgr-Rail'!J10</f>
-        <v>1.1200000000000001</v>
+        <f>'psgr-Rail'!L10</f>
+        <v>1.2352941176470587</v>
       </c>
       <c r="I5" s="20">
-        <f>'psgr-Rail'!K10</f>
-        <v>1.19</v>
+        <f>'psgr-Rail'!M10</f>
+        <v>1.3039215686274508</v>
       </c>
       <c r="J5" s="20">
-        <f>'psgr-Rail'!L10</f>
-        <v>1.26</v>
+        <f>'psgr-Rail'!N10</f>
+        <v>1.3725490196078431</v>
       </c>
       <c r="K5" s="20">
-        <f>'psgr-Rail'!M10</f>
-        <v>1.3299999999999998</v>
+        <f>'psgr-Rail'!O10</f>
+        <v>1.4411764705882353</v>
       </c>
       <c r="L5" s="20">
-        <f>'psgr-Rail'!N10</f>
-        <v>1.4</v>
+        <f>'psgr-Rail'!P10</f>
+        <v>1.5098039215686274</v>
       </c>
       <c r="M5" s="20">
-        <f>'psgr-Rail'!O10</f>
-        <v>1.47</v>
+        <f>'psgr-Rail'!Q10</f>
+        <v>1.5784313725490196</v>
       </c>
       <c r="N5" s="20">
-        <f>'psgr-Rail'!P10</f>
-        <v>1.54</v>
+        <f>'psgr-Rail'!R10</f>
+        <v>1.6470588235294117</v>
       </c>
       <c r="O5" s="20">
-        <f>'psgr-Rail'!Q10</f>
-        <v>1.6099999999999999</v>
+        <f>'psgr-Rail'!S10</f>
+        <v>1.7156862745098038</v>
       </c>
       <c r="P5" s="20">
-        <f>'psgr-Rail'!R10</f>
-        <v>1.68</v>
+        <f>'psgr-Rail'!T10</f>
+        <v>1.8014705882352939</v>
       </c>
       <c r="Q5" s="20">
-        <f>'psgr-Rail'!S10</f>
-        <v>1.75</v>
+        <f>'psgr-Rail'!U10</f>
+        <v>1.8872549019607843</v>
       </c>
       <c r="R5" s="20">
-        <f>'psgr-Rail'!T10</f>
-        <v>1.8374999999999999</v>
+        <f>'psgr-Rail'!V10</f>
+        <v>1.9730392156862744</v>
       </c>
       <c r="S5" s="20">
-        <f>'psgr-Rail'!U10</f>
-        <v>1.9249999999999998</v>
+        <f>'psgr-Rail'!W10</f>
+        <v>2.0588235294117645</v>
       </c>
       <c r="T5" s="20">
-        <f>'psgr-Rail'!V10</f>
-        <v>2.0124999999999997</v>
+        <f>'psgr-Rail'!X10</f>
+        <v>2.1446078431372548</v>
       </c>
       <c r="U5" s="20">
-        <f>'psgr-Rail'!W10</f>
-        <v>2.1</v>
+        <f>'psgr-Rail'!Y10</f>
+        <v>2.2303921568627447</v>
       </c>
       <c r="V5" s="20">
-        <f>'psgr-Rail'!X10</f>
-        <v>2.1875</v>
+        <f>'psgr-Rail'!Z10</f>
+        <v>2.3161764705882351</v>
       </c>
       <c r="W5" s="20">
-        <f>'psgr-Rail'!Y10</f>
-        <v>2.2749999999999999</v>
+        <f>'psgr-Rail'!AA10</f>
+        <v>2.4019607843137254</v>
       </c>
       <c r="X5" s="20">
-        <f>'psgr-Rail'!Z10</f>
-        <v>2.3624999999999998</v>
+        <f>'psgr-Rail'!AB10</f>
+        <v>2.4877450980392157</v>
       </c>
       <c r="Y5" s="20">
-        <f>'psgr-Rail'!AA10</f>
-        <v>2.4499999999999997</v>
+        <f>'psgr-Rail'!AC10</f>
+        <v>2.5735294117647056</v>
       </c>
       <c r="Z5" s="20">
-        <f>'psgr-Rail'!AB10</f>
-        <v>2.5375000000000001</v>
+        <f>'psgr-Rail'!AD10</f>
+        <v>2.625</v>
       </c>
       <c r="AA5" s="20">
-        <f>'psgr-Rail'!AC10</f>
-        <v>2.625</v>
+        <f>'psgr-Rail'!AE10</f>
+        <v>2.6764705882352939</v>
       </c>
       <c r="AB5" s="20">
-        <f>'psgr-Rail'!AD10</f>
-        <v>2.6774999999999998</v>
+        <f>'psgr-Rail'!AF10</f>
+        <v>2.7279411764705879</v>
       </c>
       <c r="AC5" s="20">
-        <f>'psgr-Rail'!AE10</f>
-        <v>2.73</v>
+        <f>'psgr-Rail'!AG10</f>
+        <v>2.7794117647058822</v>
       </c>
       <c r="AD5" s="20">
-        <f>'psgr-Rail'!AF10</f>
-        <v>2.7824999999999998</v>
+        <f>'psgr-Rail'!AH10</f>
+        <v>2.8308823529411762</v>
       </c>
       <c r="AE5" s="20">
-        <f>'psgr-Rail'!AG10</f>
-        <v>2.835</v>
+        <f>'psgr-Rail'!AI10</f>
+        <v>2.8823529411764706</v>
       </c>
       <c r="AF5" s="20">
-        <f>'psgr-Rail'!AH10</f>
-        <v>2.8874999999999997</v>
+        <f>'psgr-Rail'!AJ10</f>
+        <v>2.9338235294117645</v>
       </c>
       <c r="AG5" s="20">
-        <f>'psgr-Rail'!AI10</f>
-        <v>2.94</v>
+        <f>'psgr-Rail'!AK10</f>
+        <v>2.9852941176470584</v>
       </c>
       <c r="AH5" s="20">
-        <f>'psgr-Rail'!AJ10</f>
-        <v>2.9924999999999997</v>
+        <f>'psgr-Rail'!AL10</f>
+        <v>3.0367647058823528</v>
       </c>
       <c r="AI5" s="20">
-        <f>'psgr-Rail'!AK10</f>
-        <v>3.0449999999999999</v>
-      </c>
-      <c r="AJ5" s="20">
-        <f>'psgr-Rail'!AL10</f>
-        <v>3.0974999999999997</v>
-      </c>
-      <c r="AK5" s="20">
         <f>'psgr-Rail'!AM10</f>
-        <v>3.15</v>
+        <v>3.0882352941176467</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="20">
-        <f>'psgr-Ship'!D10</f>
+        <f>'psgr-Ship'!F10</f>
         <v>1</v>
       </c>
       <c r="C6" s="20">
-        <f>'psgr-Ship'!E10</f>
-        <v>1.0124137931034483</v>
+        <f>'psgr-Ship'!G10</f>
+        <v>1.0121130551816957</v>
       </c>
       <c r="D6" s="20">
-        <f>'psgr-Ship'!F10</f>
-        <v>1.0248275862068965</v>
+        <f>'psgr-Ship'!H10</f>
+        <v>1.0242261103633916</v>
       </c>
       <c r="E6" s="20">
-        <f>'psgr-Ship'!G10</f>
-        <v>1.0372413793103448</v>
+        <f>'psgr-Ship'!I10</f>
+        <v>1.0363391655450875</v>
       </c>
       <c r="F6" s="20">
-        <f>'psgr-Ship'!H10</f>
-        <v>1.049655172413793</v>
+        <f>'psgr-Ship'!J10</f>
+        <v>1.0456116738683856</v>
       </c>
       <c r="G6" s="20">
-        <f>'psgr-Ship'!I10</f>
-        <v>1.0620689655172413</v>
+        <f>'psgr-Ship'!K10</f>
+        <v>1.0548841821916839</v>
       </c>
       <c r="H6" s="20">
-        <f>'psgr-Ship'!J10</f>
-        <v>1.0715716878402903</v>
+        <f>'psgr-Ship'!L10</f>
+        <v>1.064156690514982</v>
       </c>
       <c r="I6" s="20">
-        <f>'psgr-Ship'!K10</f>
-        <v>1.0810744101633394</v>
+        <f>'psgr-Ship'!M10</f>
+        <v>1.0734291988382803</v>
       </c>
       <c r="J6" s="20">
-        <f>'psgr-Ship'!L10</f>
-        <v>1.0905771324863882</v>
+        <f>'psgr-Ship'!N10</f>
+        <v>1.0827017071615783</v>
       </c>
       <c r="K6" s="20">
-        <f>'psgr-Ship'!M10</f>
-        <v>1.1000798548094375</v>
+        <f>'psgr-Ship'!O10</f>
+        <v>1.0919742154848764</v>
       </c>
       <c r="L6" s="20">
-        <f>'psgr-Ship'!N10</f>
-        <v>1.1095825771324863</v>
+        <f>'psgr-Ship'!P10</f>
+        <v>1.1012467238081747</v>
       </c>
       <c r="M6" s="20">
-        <f>'psgr-Ship'!O10</f>
-        <v>1.1190852994555354</v>
+        <f>'psgr-Ship'!Q10</f>
+        <v>1.1105192321314727</v>
       </c>
       <c r="N6" s="20">
-        <f>'psgr-Ship'!P10</f>
-        <v>1.1285880217785844</v>
+        <f>'psgr-Ship'!R10</f>
+        <v>1.119791740454771</v>
       </c>
       <c r="O6" s="20">
-        <f>'psgr-Ship'!Q10</f>
-        <v>1.1380907441016332</v>
+        <f>'psgr-Ship'!S10</f>
+        <v>1.1290642487780691</v>
       </c>
       <c r="P6" s="20">
-        <f>'psgr-Ship'!R10</f>
-        <v>1.1475934664246825</v>
+        <f>'psgr-Ship'!T10</f>
+        <v>1.1315931146844231</v>
       </c>
       <c r="Q6" s="20">
-        <f>'psgr-Ship'!S10</f>
-        <v>1.1570961887477313</v>
+        <f>'psgr-Ship'!U10</f>
+        <v>1.1341219805907772</v>
       </c>
       <c r="R6" s="20">
-        <f>'psgr-Ship'!T10</f>
-        <v>1.159687840290381</v>
+        <f>'psgr-Ship'!V10</f>
+        <v>1.1366508464971312</v>
       </c>
       <c r="S6" s="20">
-        <f>'psgr-Ship'!U10</f>
-        <v>1.1622794918330308</v>
+        <f>'psgr-Ship'!W10</f>
+        <v>1.1391797124034853</v>
       </c>
       <c r="T6" s="20">
-        <f>'psgr-Ship'!V10</f>
-        <v>1.1648711433756807</v>
+        <f>'psgr-Ship'!X10</f>
+        <v>1.1417085783098393</v>
       </c>
       <c r="U6" s="20">
-        <f>'psgr-Ship'!W10</f>
-        <v>1.1674627949183303</v>
+        <f>'psgr-Ship'!Y10</f>
+        <v>1.1442374442161933</v>
       </c>
       <c r="V6" s="20">
-        <f>'psgr-Ship'!X10</f>
-        <v>1.1700544464609801</v>
+        <f>'psgr-Ship'!Z10</f>
+        <v>1.1467663101225474</v>
       </c>
       <c r="W6" s="20">
-        <f>'psgr-Ship'!Y10</f>
-        <v>1.1726460980036297</v>
+        <f>'psgr-Ship'!AA10</f>
+        <v>1.1492951760289014</v>
       </c>
       <c r="X6" s="20">
-        <f>'psgr-Ship'!Z10</f>
-        <v>1.1752377495462794</v>
+        <f>'psgr-Ship'!AB10</f>
+        <v>1.1518240419352554</v>
       </c>
       <c r="Y6" s="20">
-        <f>'psgr-Ship'!AA10</f>
-        <v>1.1778294010889292</v>
+        <f>'psgr-Ship'!AC10</f>
+        <v>1.1543529078416095</v>
       </c>
       <c r="Z6" s="20">
-        <f>'psgr-Ship'!AB10</f>
-        <v>1.180421052631579</v>
+        <f>'psgr-Ship'!AD10</f>
+        <v>1.1534603669334844</v>
       </c>
       <c r="AA6" s="20">
-        <f>'psgr-Ship'!AC10</f>
-        <v>1.1830127041742287</v>
+        <f>'psgr-Ship'!AE10</f>
+        <v>1.1525678260253596</v>
       </c>
       <c r="AB6" s="20">
-        <f>'psgr-Ship'!AD10</f>
-        <v>1.1820980036297639</v>
+        <f>'psgr-Ship'!AF10</f>
+        <v>1.1516752851172345</v>
       </c>
       <c r="AC6" s="20">
-        <f>'psgr-Ship'!AE10</f>
-        <v>1.1811833030852994</v>
+        <f>'psgr-Ship'!AG10</f>
+        <v>1.1507827442091099</v>
       </c>
       <c r="AD6" s="20">
-        <f>'psgr-Ship'!AF10</f>
-        <v>1.1802686025408349</v>
+        <f>'psgr-Ship'!AH10</f>
+        <v>1.1498902033009848</v>
       </c>
       <c r="AE6" s="20">
-        <f>'psgr-Ship'!AG10</f>
-        <v>1.1793539019963704</v>
+        <f>'psgr-Ship'!AI10</f>
+        <v>1.1489976623928597</v>
       </c>
       <c r="AF6" s="20">
-        <f>'psgr-Ship'!AH10</f>
-        <v>1.1784392014519056</v>
+        <f>'psgr-Ship'!AJ10</f>
+        <v>1.1481051214847349</v>
       </c>
       <c r="AG6" s="20">
-        <f>'psgr-Ship'!AI10</f>
-        <v>1.1775245009074409</v>
+        <f>'psgr-Ship'!AK10</f>
+        <v>1.1472125805766098</v>
       </c>
       <c r="AH6" s="20">
-        <f>'psgr-Ship'!AJ10</f>
-        <v>1.1766098003629764</v>
+        <f>'psgr-Ship'!AL10</f>
+        <v>1.1463200396684849</v>
       </c>
       <c r="AI6" s="20">
-        <f>'psgr-Ship'!AK10</f>
-        <v>1.205627931214174</v>
-      </c>
-      <c r="AJ6" s="20">
-        <f>'psgr-Ship'!AL10</f>
-        <v>1.2046899426784785</v>
-      </c>
-      <c r="AK6" s="20">
         <f>'psgr-Ship'!AM10</f>
-        <v>1.2037519541427828</v>
+        <v>1.1454274987603599</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="20">
-        <f>'psgr-Road'!B31</f>
+        <f>'psgr-Road'!D31</f>
         <v>1</v>
       </c>
       <c r="C7" s="20">
-        <f>'psgr-Road'!C31</f>
-        <v>1.0419317792910516</v>
+        <f>'psgr-Road'!E31</f>
+        <v>1.046080879049696</v>
       </c>
       <c r="D7" s="20">
-        <f>'psgr-Road'!D31</f>
-        <v>1.0877715436258422</v>
+        <f>'psgr-Road'!F31</f>
+        <v>1.0958504058281553</v>
       </c>
       <c r="E7" s="20">
-        <f>'psgr-Road'!E31</f>
-        <v>1.1378970125613659</v>
+        <f>'psgr-Road'!G31</f>
+        <v>1.1495856007031664</v>
       </c>
       <c r="F7" s="20">
-        <f>'psgr-Road'!F31</f>
-        <v>1.1920348875306981</v>
+        <f>'psgr-Road'!H31</f>
+        <v>1.2080495815584624</v>
       </c>
       <c r="G7" s="20">
-        <f>'psgr-Road'!G31</f>
-        <v>1.2504865034069246</v>
+        <f>'psgr-Road'!I31</f>
+        <v>1.2717226743996142</v>
       </c>
       <c r="H7" s="20">
-        <f>'psgr-Road'!H31</f>
-        <v>1.3140819581084016</v>
+        <f>'psgr-Road'!J31</f>
+        <v>1.3407784248317227</v>
       </c>
       <c r="I7" s="20">
-        <f>'psgr-Road'!I31</f>
-        <v>1.3833437365956527</v>
+        <f>'psgr-Road'!K31</f>
+        <v>1.4150634766188863</v>
       </c>
       <c r="J7" s="20">
-        <f>'psgr-Road'!J31</f>
-        <v>1.4584606168394283</v>
+        <f>'psgr-Road'!L31</f>
+        <v>1.4890319808341801</v>
       </c>
       <c r="K7" s="20">
-        <f>'psgr-Road'!K31</f>
-        <v>1.5392657822902769</v>
+        <f>'psgr-Road'!M31</f>
+        <v>1.5580501958276625</v>
       </c>
       <c r="L7" s="20">
-        <f>'psgr-Road'!L31</f>
-        <v>1.6197266163002415</v>
+        <f>'psgr-Road'!N31</f>
+        <v>1.6225368532892837</v>
       </c>
       <c r="M7" s="20">
-        <f>'psgr-Road'!M31</f>
-        <v>1.6948026665620022</v>
+        <f>'psgr-Road'!O31</f>
+        <v>1.6827804098625356</v>
       </c>
       <c r="N7" s="20">
-        <f>'psgr-Road'!N31</f>
-        <v>1.7649494174923008</v>
+        <f>'psgr-Road'!P31</f>
+        <v>1.7390499309835077</v>
       </c>
       <c r="O7" s="20">
-        <f>'psgr-Road'!O31</f>
-        <v>1.8304806440194978</v>
+        <f>'psgr-Road'!Q31</f>
+        <v>1.7915967357249518</v>
       </c>
       <c r="P7" s="20">
-        <f>'psgr-Road'!P31</f>
-        <v>1.8916890278683445</v>
+        <f>'psgr-Road'!R31</f>
+        <v>1.8408046137575225</v>
       </c>
       <c r="Q7" s="20">
-        <f>'psgr-Road'!Q31</f>
-        <v>1.948847946774551</v>
+        <f>'psgr-Road'!S31</f>
+        <v>1.8870153384474819</v>
       </c>
       <c r="R7" s="20">
-        <f>'psgr-Road'!R31</f>
-        <v>2.0023748762205926</v>
+        <f>'psgr-Road'!T31</f>
+        <v>1.9305066531176802</v>
       </c>
       <c r="S7" s="20">
-        <f>'psgr-Road'!S31</f>
-        <v>2.0526415875486586</v>
+        <f>'psgr-Road'!U31</f>
+        <v>1.9715944939820154</v>
       </c>
       <c r="T7" s="20">
-        <f>'psgr-Road'!T31</f>
-        <v>2.0999502020417773</v>
+        <f>'psgr-Road'!V31</f>
+        <v>2.0091012836945339</v>
       </c>
       <c r="U7" s="20">
-        <f>'psgr-Road'!U31</f>
-        <v>2.1446443861230282</v>
+        <f>'psgr-Road'!W31</f>
+        <v>2.0423734611755959</v>
       </c>
       <c r="V7" s="20">
-        <f>'psgr-Road'!V31</f>
-        <v>2.1854432046650643</v>
+        <f>'psgr-Road'!X31</f>
+        <v>2.0719357656465771</v>
       </c>
       <c r="W7" s="20">
-        <f>'psgr-Road'!W31</f>
-        <v>2.2216357325234317</v>
+        <f>'psgr-Road'!Y31</f>
+        <v>2.0980745479624012</v>
       </c>
       <c r="X7" s="20">
-        <f>'psgr-Road'!X31</f>
-        <v>2.2537927660909682</v>
+        <f>'psgr-Road'!Z31</f>
+        <v>2.1211795342737081</v>
       </c>
       <c r="Y7" s="20">
-        <f>'psgr-Road'!Y31</f>
-        <v>2.2822257896791522</v>
+        <f>'psgr-Road'!AA31</f>
+        <v>2.1415970152028816</v>
       </c>
       <c r="Z7" s="20">
-        <f>'psgr-Road'!Z31</f>
-        <v>2.3073587363044568</v>
+        <f>'psgr-Road'!AB31</f>
+        <v>2.1596528105843573</v>
       </c>
       <c r="AA7" s="20">
-        <f>'psgr-Road'!AA31</f>
-        <v>2.3295682910517348</v>
+        <f>'psgr-Road'!AC31</f>
+        <v>2.1756454086696113</v>
       </c>
       <c r="AB7" s="20">
-        <f>'psgr-Road'!AB31</f>
-        <v>2.3492088714652346</v>
+        <f>'psgr-Road'!AD31</f>
+        <v>2.1898377977053736</v>
       </c>
       <c r="AC7" s="20">
-        <f>'psgr-Road'!AC31</f>
-        <v>2.3666051645710193</v>
+        <f>'psgr-Road'!AE31</f>
+        <v>2.2024761948365641</v>
       </c>
       <c r="AD7" s="20">
-        <f>'psgr-Road'!AD31</f>
-        <v>2.3820432415001891</v>
+        <f>'psgr-Road'!AF31</f>
+        <v>2.2137753249945011</v>
       </c>
       <c r="AE7" s="20">
-        <f>'psgr-Road'!AE31</f>
-        <v>2.3957909302565406</v>
+        <f>'psgr-Road'!AG31</f>
+        <v>2.2239416233875362</v>
       </c>
       <c r="AF7" s="20">
-        <f>'psgr-Road'!AF31</f>
-        <v>2.4080818025100692</v>
+        <f>'psgr-Road'!AH31</f>
+        <v>2.2331596594724457</v>
       </c>
       <c r="AG7" s="20">
-        <f>'psgr-Road'!AG31</f>
-        <v>2.4191404126060219</v>
+        <f>'psgr-Road'!AI31</f>
+        <v>2.241586508579458</v>
       </c>
       <c r="AH7" s="20">
-        <f>'psgr-Road'!AH31</f>
-        <v>2.4291675299473026</v>
+        <f>'psgr-Road'!AJ31</f>
+        <v>2.249359015427201</v>
       </c>
       <c r="AI7" s="20">
-        <f>'psgr-Road'!AI31</f>
-        <v>2.4383340166083394</v>
-      </c>
-      <c r="AJ7" s="20">
-        <f>'psgr-Road'!AJ31</f>
-        <v>2.4467887283799512</v>
-      </c>
-      <c r="AK7" s="20">
         <f>'psgr-Road'!AK31</f>
-        <v>2.4546576307178984</v>
+        <v>2.2565929814047614</v>
       </c>
     </row>
   </sheetData>
@@ -53287,872 +53182,831 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D2" sqref="D2:AI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:35">
       <c r="B1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="H1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="I1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="J1">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="K1">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="L1">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="M1">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="N1">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="O1">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="P1">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="Q1">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="R1">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="S1">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="T1">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="U1">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="V1">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="W1">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="X1">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="Y1">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="Z1">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="AA1">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="AB1">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="AC1">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="AD1">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="AE1">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="AF1">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="AG1">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="AH1">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="AI1">
-        <v>2048</v>
-      </c>
-      <c r="AJ1">
-        <v>2049</v>
-      </c>
-      <c r="AK1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="20">
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(D2),1)</f>
         <v>1</v>
       </c>
       <c r="C2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(C2),1)</f>
-        <v>1.0507050631936288</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(E2),1)</f>
+        <v>1.0449656402039924</v>
       </c>
       <c r="D2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(D2),1)</f>
-        <v>1.1016554748837066</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(F2),1)</f>
+        <v>1.0886992817107199</v>
       </c>
       <c r="E2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(E2),1)</f>
-        <v>1.1511921185960858</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(G2),1)</f>
+        <v>1.131229112381628</v>
       </c>
       <c r="F2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(F2),1)</f>
-        <v>1.1993715241985734</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(H2),1)</f>
+        <v>1.158921906068562</v>
       </c>
       <c r="G2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(G2),1)</f>
-        <v>1.2462247450030564</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(I2),1)</f>
+        <v>1.1725872779319417</v>
       </c>
       <c r="H2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(H2),1)</f>
-        <v>1.2767326627830922</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(J2),1)</f>
+        <v>1.1856308372309903</v>
       </c>
       <c r="I2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(I2),1)</f>
-        <v>1.2917871945127062</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(K2),1)</f>
+        <v>1.1981171726082145</v>
       </c>
       <c r="J2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(J2),1)</f>
-        <v>1.3061567030264734</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(L2),1)</f>
+        <v>1.210092649161004</v>
       </c>
       <c r="K2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(K2),1)</f>
-        <v>1.3199123427560264</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(M2),1)</f>
+        <v>1.2232529182113743</v>
       </c>
       <c r="L2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(L2),1)</f>
-        <v>1.3331051920647485</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(N2),1)</f>
+        <v>1.2392647351925479</v>
       </c>
       <c r="M2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(M2),1)</f>
-        <v>1.3476032745150315</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(O2),1)</f>
+        <v>1.2583492828314677</v>
       </c>
       <c r="N2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(N2),1)</f>
-        <v>1.3652427803551772</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(P2),1)</f>
+        <v>1.2807563071567158</v>
       </c>
       <c r="O2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(O2),1)</f>
-        <v>1.3862673767472724</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(Q2),1)</f>
+        <v>1.3067694433284918</v>
       </c>
       <c r="P2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(P2),1)</f>
-        <v>1.4109521977710342</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(R2),1)</f>
+        <v>1.3366724743520209</v>
       </c>
       <c r="Q2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(Q2),1)</f>
-        <v>1.4396097116535667</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(S2),1)</f>
+        <v>1.3691534201315199</v>
       </c>
       <c r="R2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(R2),1)</f>
-        <v>1.4725525494962546</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(T2),1)</f>
+        <v>1.4021235741063447</v>
       </c>
       <c r="S2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(S2),1)</f>
-        <v>1.5083353612436408</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(U2),1)</f>
+        <v>1.4349534219992715</v>
       </c>
       <c r="T2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(T2),1)</f>
-        <v>1.5446571118777652</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(V2),1)</f>
+        <v>1.4676318704589217</v>
       </c>
       <c r="U2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(U2),1)</f>
-        <v>1.5808242935486072</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(W2),1)</f>
+        <v>1.4996854577570125</v>
       </c>
       <c r="V2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(V2),1)</f>
-        <v>1.616824685204886</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(X2),1)</f>
+        <v>1.5311319470728599</v>
       </c>
       <c r="W2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(W2),1)</f>
-        <v>1.6521366951414904</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(Y2),1)</f>
+        <v>1.5623934627374458</v>
       </c>
       <c r="X2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(X2),1)</f>
-        <v>1.6867798922621657</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(Z2),1)</f>
+        <v>1.5933942641484029</v>
       </c>
       <c r="Y2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(Y2),1)</f>
-        <v>1.7212193121472197</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AA2),1)</f>
+        <v>1.6240806963109355</v>
       </c>
       <c r="Z2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(Z2),1)</f>
-        <v>1.755371514747383</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AB2),1)</f>
+        <v>1.6571847617284075</v>
       </c>
       <c r="AA2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AA2),1)</f>
-        <v>1.7891773907438846</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AC2),1)</f>
+        <v>1.6954406385087153</v>
       </c>
       <c r="AB2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AB2),1)</f>
-        <v>1.8256466656519508</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AD2),1)</f>
+        <v>1.7372482640212745</v>
       </c>
       <c r="AC2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AC2),1)</f>
-        <v>1.8677914617534535</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AE2),1)</f>
+        <v>1.7796633453844997</v>
       </c>
       <c r="AD2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AD2),1)</f>
-        <v>1.9138490612912522</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AF2),1)</f>
+        <v>1.8214121631160463</v>
       </c>
       <c r="AE2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AE2),1)</f>
-        <v>1.960575867892687</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AG2),1)</f>
+        <v>1.8512260174000983</v>
       </c>
       <c r="AF2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AF2),1)</f>
-        <v>2.0065686815165673</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AH2),1)</f>
+        <v>1.8697015505735561</v>
       </c>
       <c r="AG2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AG2),1)</f>
-        <v>2.0394132773159783</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AI2),1)</f>
+        <v>1.8878657210946728</v>
       </c>
       <c r="AH2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AH2),1)</f>
-        <v>2.0597669495879138</v>
+        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AJ2),1)</f>
+        <v>1.9057814491641532</v>
       </c>
       <c r="AI2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AI2),1)</f>
-        <v>2.0797776074892229</v>
-      </c>
-      <c r="AJ2" s="20">
-        <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AJ2),1)</f>
-        <v>2.0995145674034936</v>
-      </c>
-      <c r="AK2" s="20">
         <f>INDEX('frgt-Road'!$I12:$I48,COLUMN(AK2),1)</f>
-        <v>2.1190469515265593</v>
+        <v>1.9235114787136616</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="20">
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(D2),1)</f>
         <v>1</v>
       </c>
       <c r="C3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(C2),1)</f>
-        <v>1.0286734233225316</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(E2),1)</f>
+        <v>1.014614180423479</v>
       </c>
       <c r="D3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(D2),1)</f>
-        <v>1.0589549394611451</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(F2),1)</f>
+        <v>1.0434727745505517</v>
       </c>
       <c r="E3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(E2),1)</f>
-        <v>1.0899064565523837</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(G2),1)</f>
+        <v>1.066680790572464</v>
       </c>
       <c r="F3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(F2),1)</f>
-        <v>1.1200748410546817</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(H2),1)</f>
+        <v>1.0793813080895922</v>
       </c>
       <c r="G3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(G2),1)</f>
-        <v>1.1390589429553784</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(I2),1)</f>
+        <v>1.084225438904264</v>
       </c>
       <c r="H3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(H2),1)</f>
-        <v>1.1469733925716328</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(J2),1)</f>
+        <v>1.0868985943557465</v>
       </c>
       <c r="I3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(I2),1)</f>
-        <v>1.1493183754625642</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(K2),1)</f>
+        <v>1.0899839199213233</v>
       </c>
       <c r="J3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(J2),1)</f>
-        <v>1.1526348949102219</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(L2),1)</f>
+        <v>1.0950626740468323</v>
       </c>
       <c r="K3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(K2),1)</f>
-        <v>1.1558528169575912</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(M2),1)</f>
+        <v>1.1025345616948683</v>
       </c>
       <c r="L3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(L2),1)</f>
-        <v>1.1633912384452547</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(N2),1)</f>
+        <v>1.1117484195031215</v>
       </c>
       <c r="M3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(M2),1)</f>
-        <v>1.1716776016215644</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(O2),1)</f>
+        <v>1.1238207681676724</v>
       </c>
       <c r="N3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(N2),1)</f>
-        <v>1.1829053589203393</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(P2),1)</f>
+        <v>1.1386365564179288</v>
       </c>
       <c r="O3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(O2),1)</f>
-        <v>1.1972457481200107</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(Q2),1)</f>
+        <v>1.1540700506643498</v>
       </c>
       <c r="P3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(P2),1)</f>
-        <v>1.2142838632195785</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(R2),1)</f>
+        <v>1.1725217789437061</v>
       </c>
       <c r="Q3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(Q2),1)</f>
-        <v>1.2299324980507955</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(S2),1)</f>
+        <v>1.1954903705426454</v>
       </c>
       <c r="R3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(R2),1)</f>
-        <v>1.2533629608256176</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(T2),1)</f>
+        <v>1.2194667161780115</v>
       </c>
       <c r="S3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(S2),1)</f>
-        <v>1.2785779051031201</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(U2),1)</f>
+        <v>1.2434739431227146</v>
       </c>
       <c r="T3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(T2),1)</f>
-        <v>1.3041427001072152</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(V2),1)</f>
+        <v>1.2647365619212561</v>
       </c>
       <c r="U3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(U2),1)</f>
-        <v>1.3294230482148359</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(W2),1)</f>
+        <v>1.2854569255287287</v>
       </c>
       <c r="V3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(V2),1)</f>
-        <v>1.3491750105124045</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(X2),1)</f>
+        <v>1.3080455593223177</v>
       </c>
       <c r="W3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(W2),1)</f>
-        <v>1.3733069109939642</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(Y2),1)</f>
+        <v>1.330370839432357</v>
       </c>
       <c r="X3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(X2),1)</f>
-        <v>1.3970157011752049</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(Z2),1)</f>
+        <v>1.3525623626759158</v>
       </c>
       <c r="Y3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(Y2),1)</f>
-        <v>1.4205898422887238</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AA2),1)</f>
+        <v>1.3719480462208113</v>
       </c>
       <c r="Z3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(Z2),1)</f>
-        <v>1.4440153474810717</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AB2),1)</f>
+        <v>1.3931947678428349</v>
       </c>
       <c r="AA3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AA2),1)</f>
-        <v>1.4616469729781201</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AC2),1)</f>
+        <v>1.4209846471720606</v>
       </c>
       <c r="AB3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AB2),1)</f>
-        <v>1.4890139890990668</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AD2),1)</f>
+        <v>1.4521219227074893</v>
       </c>
       <c r="AC3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AC2),1)</f>
-        <v>1.5205034329435454</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AE2),1)</f>
+        <v>1.4849037666393485</v>
       </c>
       <c r="AD3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AD2),1)</f>
-        <v>1.5549599325582766</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AF2),1)</f>
+        <v>1.5117454579901963</v>
       </c>
       <c r="AE3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AE2),1)</f>
-        <v>1.5899324240561186</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AG2),1)</f>
+        <v>1.5341508339462506</v>
       </c>
       <c r="AF3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AF2),1)</f>
-        <v>1.6118082158372202</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AH2),1)</f>
+        <v>1.5544577002578666</v>
       </c>
       <c r="AG3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AG2),1)</f>
-        <v>1.6373849911344134</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AI2),1)</f>
+        <v>1.5708762086693249</v>
       </c>
       <c r="AH3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AH2),1)</f>
-        <v>1.6548163286085467</v>
+        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AJ2),1)</f>
+        <v>1.5874612370528673</v>
       </c>
       <c r="AI3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AI2),1)</f>
-        <v>1.6721579122962091</v>
-      </c>
-      <c r="AJ3" s="20">
-        <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AJ2),1)</f>
-        <v>1.6899419240642573</v>
-      </c>
-      <c r="AK3" s="20">
         <f>INDEX('frgt-Road'!$J12:$J48,COLUMN(AK2),1)</f>
-        <v>1.6944234170732169</v>
+        <v>1.5979741984392777</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="20">
+        <f>'frgt-Air'!F10</f>
         <v>1</v>
       </c>
       <c r="C4" s="20">
-        <f>'frgt-Air'!E10</f>
-        <v>1.0092236241697925</v>
+        <f>'frgt-Air'!G10</f>
+        <v>1.0090565556388222</v>
       </c>
       <c r="D4" s="20">
-        <f>'frgt-Air'!F10</f>
-        <v>1.0184472483395852</v>
+        <f>'frgt-Air'!H10</f>
+        <v>1.0181131112776443</v>
       </c>
       <c r="E4" s="20">
-        <f>'frgt-Air'!G10</f>
-        <v>1.0276708725093779</v>
+        <f>'frgt-Air'!I10</f>
+        <v>1.0271696669164661</v>
       </c>
       <c r="F4" s="20">
-        <f>'frgt-Air'!H10</f>
-        <v>1.0368944966791707</v>
+        <f>'frgt-Air'!J10</f>
+        <v>1.0172808010587242</v>
       </c>
       <c r="G4" s="20">
-        <f>'frgt-Air'!I10</f>
-        <v>1.0461181208489632</v>
+        <f>'frgt-Air'!K10</f>
+        <v>1.0073919352009821</v>
       </c>
       <c r="H4" s="20">
-        <f>'frgt-Air'!J10</f>
-        <v>1.0360468326269467</v>
+        <f>'frgt-Air'!L10</f>
+        <v>0.99750306934324051</v>
       </c>
       <c r="I4" s="20">
-        <f>'frgt-Air'!K10</f>
-        <v>1.0259755444049301</v>
+        <f>'frgt-Air'!M10</f>
+        <v>0.98761420348549855</v>
       </c>
       <c r="J4" s="20">
-        <f>'frgt-Air'!L10</f>
-        <v>1.0159042561829137</v>
+        <f>'frgt-Air'!N10</f>
+        <v>0.9777253376277566</v>
       </c>
       <c r="K4" s="20">
-        <f>'frgt-Air'!M10</f>
-        <v>1.0058329679608971</v>
+        <f>'frgt-Air'!O10</f>
+        <v>0.96783647177001453</v>
       </c>
       <c r="L4" s="20">
-        <f>'frgt-Air'!N10</f>
-        <v>0.99576167973888052</v>
+        <f>'frgt-Air'!P10</f>
+        <v>0.95794760591227257</v>
       </c>
       <c r="M4" s="20">
-        <f>'frgt-Air'!O10</f>
-        <v>0.985690391516864</v>
+        <f>'frgt-Air'!Q10</f>
+        <v>0.94805874005453084</v>
       </c>
       <c r="N4" s="20">
-        <f>'frgt-Air'!P10</f>
-        <v>0.97561910329484736</v>
+        <f>'frgt-Air'!R10</f>
+        <v>0.93816987419678888</v>
       </c>
       <c r="O4" s="20">
-        <f>'frgt-Air'!Q10</f>
-        <v>0.96554781507283105</v>
+        <f>'frgt-Air'!S10</f>
+        <v>0.92828100833904692</v>
       </c>
       <c r="P4" s="20">
-        <f>'frgt-Air'!R10</f>
-        <v>0.95547652685081452</v>
+        <f>'frgt-Air'!T10</f>
+        <v>0.94229953601097005</v>
       </c>
       <c r="Q4" s="20">
-        <f>'frgt-Air'!S10</f>
-        <v>0.94540523862879788</v>
+        <f>'frgt-Air'!U10</f>
+        <v>0.95631806368289318</v>
       </c>
       <c r="R4" s="20">
-        <f>'frgt-Air'!T10</f>
-        <v>0.95968236956204034</v>
+        <f>'frgt-Air'!V10</f>
+        <v>0.97033659135481609</v>
       </c>
       <c r="S4" s="20">
-        <f>'frgt-Air'!U10</f>
-        <v>0.97395950049528279</v>
+        <f>'frgt-Air'!W10</f>
+        <v>0.98435511902673922</v>
       </c>
       <c r="T4" s="20">
-        <f>'frgt-Air'!V10</f>
-        <v>0.98823663142852503</v>
+        <f>'frgt-Air'!X10</f>
+        <v>0.99837364669866235</v>
       </c>
       <c r="U4" s="20">
-        <f>'frgt-Air'!W10</f>
-        <v>1.0025137623617675</v>
+        <f>'frgt-Air'!Y10</f>
+        <v>1.0123921743705855</v>
       </c>
       <c r="V4" s="20">
-        <f>'frgt-Air'!X10</f>
-        <v>1.0167908932950098</v>
+        <f>'frgt-Air'!Z10</f>
+        <v>1.0264107020425086</v>
       </c>
       <c r="W4" s="20">
-        <f>'frgt-Air'!Y10</f>
-        <v>1.0310680242282524</v>
+        <f>'frgt-Air'!AA10</f>
+        <v>1.0404292297144315</v>
       </c>
       <c r="X4" s="20">
-        <f>'frgt-Air'!Z10</f>
-        <v>1.0453451551614947</v>
+        <f>'frgt-Air'!AB10</f>
+        <v>1.0544477573863547</v>
       </c>
       <c r="Y4" s="20">
-        <f>'frgt-Air'!AA10</f>
-        <v>1.0596222860947371</v>
+        <f>'frgt-Air'!AC10</f>
+        <v>1.0684662850582778</v>
       </c>
       <c r="Z4" s="20">
-        <f>'frgt-Air'!AB10</f>
-        <v>1.0738994170279794</v>
+        <f>'frgt-Air'!AD10</f>
+        <v>1.0953983768356268</v>
       </c>
       <c r="AA4" s="20">
-        <f>'frgt-Air'!AC10</f>
-        <v>1.0881765479612218</v>
+        <f>'frgt-Air'!AE10</f>
+        <v>1.122330468612976</v>
       </c>
       <c r="AB4" s="20">
-        <f>'frgt-Air'!AD10</f>
-        <v>1.115605462723892</v>
+        <f>'frgt-Air'!AF10</f>
+        <v>1.1492625603903248</v>
       </c>
       <c r="AC4" s="20">
-        <f>'frgt-Air'!AE10</f>
-        <v>1.1430343774865626</v>
+        <f>'frgt-Air'!AG10</f>
+        <v>1.176194652167674</v>
       </c>
       <c r="AD4" s="20">
-        <f>'frgt-Air'!AF10</f>
-        <v>1.1704632922492328</v>
+        <f>'frgt-Air'!AH10</f>
+        <v>1.2031267439450231</v>
       </c>
       <c r="AE4" s="20">
-        <f>'frgt-Air'!AG10</f>
-        <v>1.1978922070119031</v>
+        <f>'frgt-Air'!AI10</f>
+        <v>1.2300588357223721</v>
       </c>
       <c r="AF4" s="20">
-        <f>'frgt-Air'!AH10</f>
-        <v>1.2253211217745734</v>
+        <f>'frgt-Air'!AJ10</f>
+        <v>1.2569909274997211</v>
       </c>
       <c r="AG4" s="20">
-        <f>'frgt-Air'!AI10</f>
-        <v>1.2527500365372437</v>
+        <f>'frgt-Air'!AK10</f>
+        <v>1.2839230192770701</v>
       </c>
       <c r="AH4" s="20">
-        <f>'frgt-Air'!AJ10</f>
-        <v>1.280178951299914</v>
+        <f>'frgt-Air'!AL10</f>
+        <v>1.3108551110544193</v>
       </c>
       <c r="AI4" s="20">
-        <f>'frgt-Air'!AK10</f>
-        <v>1.3076078660625843</v>
-      </c>
-      <c r="AJ4" s="20">
-        <f>'frgt-Air'!AL10</f>
-        <v>1.3350367808252548</v>
-      </c>
-      <c r="AK4" s="20">
         <f>'frgt-Air'!AM10</f>
-        <v>1.3624656955879249</v>
+        <v>1.3377872028317683</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="20">
+        <f>'frgt-Rail'!F10</f>
         <v>1</v>
       </c>
       <c r="C5" s="20">
-        <f>'frgt-Rail'!E10</f>
-        <v>1.0473793684004054</v>
+        <f>'frgt-Rail'!G10</f>
+        <v>1.0432783651846991</v>
       </c>
       <c r="D5" s="20">
-        <f>'frgt-Rail'!F10</f>
-        <v>1.0947587368008105</v>
+        <f>'frgt-Rail'!H10</f>
+        <v>1.0865567303693981</v>
       </c>
       <c r="E5" s="20">
-        <f>'frgt-Rail'!G10</f>
-        <v>1.1421381052012161</v>
+        <f>'frgt-Rail'!I10</f>
+        <v>1.1298350955540972</v>
       </c>
       <c r="F5" s="20">
-        <f>'frgt-Rail'!H10</f>
-        <v>1.1895174736016212</v>
+        <f>'frgt-Rail'!J10</f>
+        <v>1.1797150137028434</v>
       </c>
       <c r="G5" s="20">
-        <f>'frgt-Rail'!I10</f>
-        <v>1.2368968420020265</v>
+        <f>'frgt-Rail'!K10</f>
+        <v>1.2295949318515895</v>
       </c>
       <c r="H5" s="20">
-        <f>'frgt-Rail'!J10</f>
-        <v>1.2915033181862758</v>
+        <f>'frgt-Rail'!L10</f>
+        <v>1.2794748500003359</v>
       </c>
       <c r="I5" s="20">
-        <f>'frgt-Rail'!K10</f>
-        <v>1.3461097943705249</v>
+        <f>'frgt-Rail'!M10</f>
+        <v>1.329354768149082</v>
       </c>
       <c r="J5" s="20">
-        <f>'frgt-Rail'!L10</f>
-        <v>1.4007162705547744</v>
+        <f>'frgt-Rail'!N10</f>
+        <v>1.3792346862978284</v>
       </c>
       <c r="K5" s="20">
-        <f>'frgt-Rail'!M10</f>
-        <v>1.4553227467390235</v>
+        <f>'frgt-Rail'!O10</f>
+        <v>1.4291146044465743</v>
       </c>
       <c r="L5" s="20">
-        <f>'frgt-Rail'!N10</f>
-        <v>1.5099292229232728</v>
+        <f>'frgt-Rail'!P10</f>
+        <v>1.4789945225953207</v>
       </c>
       <c r="M5" s="20">
-        <f>'frgt-Rail'!O10</f>
-        <v>1.5645356991075219</v>
+        <f>'frgt-Rail'!Q10</f>
+        <v>1.5288744407440671</v>
       </c>
       <c r="N5" s="20">
-        <f>'frgt-Rail'!P10</f>
-        <v>1.6191421752917712</v>
+        <f>'frgt-Rail'!R10</f>
+        <v>1.578754358892813</v>
       </c>
       <c r="O5" s="20">
-        <f>'frgt-Rail'!Q10</f>
-        <v>1.6737486514760205</v>
+        <f>'frgt-Rail'!S10</f>
+        <v>1.6286342770415594</v>
       </c>
       <c r="P5" s="20">
-        <f>'frgt-Rail'!R10</f>
-        <v>1.7283551276602696</v>
+        <f>'frgt-Rail'!T10</f>
+        <v>1.712484369202607</v>
       </c>
       <c r="Q5" s="20">
-        <f>'frgt-Rail'!S10</f>
-        <v>1.7829616038445191</v>
+        <f>'frgt-Rail'!U10</f>
+        <v>1.7963344613636552</v>
       </c>
       <c r="R5" s="20">
-        <f>'frgt-Rail'!T10</f>
-        <v>1.8747572248193791</v>
+        <f>'frgt-Rail'!V10</f>
+        <v>1.8801845535247028</v>
       </c>
       <c r="S5" s="20">
-        <f>'frgt-Rail'!U10</f>
-        <v>1.9665528457942396</v>
+        <f>'frgt-Rail'!W10</f>
+        <v>1.9640346456857507</v>
       </c>
       <c r="T5" s="20">
-        <f>'frgt-Rail'!V10</f>
-        <v>2.0583484667690994</v>
+        <f>'frgt-Rail'!X10</f>
+        <v>2.0478847378467986</v>
       </c>
       <c r="U5" s="20">
-        <f>'frgt-Rail'!W10</f>
-        <v>2.1501440877439602</v>
+        <f>'frgt-Rail'!Y10</f>
+        <v>2.1317348300078467</v>
       </c>
       <c r="V5" s="20">
-        <f>'frgt-Rail'!X10</f>
-        <v>2.2419397087188204</v>
+        <f>'frgt-Rail'!Z10</f>
+        <v>2.2155849221688944</v>
       </c>
       <c r="W5" s="20">
-        <f>'frgt-Rail'!Y10</f>
-        <v>2.3337353296936807</v>
+        <f>'frgt-Rail'!AA10</f>
+        <v>2.299435014329942</v>
       </c>
       <c r="X5" s="20">
-        <f>'frgt-Rail'!Z10</f>
-        <v>2.425530950668541</v>
+        <f>'frgt-Rail'!AB10</f>
+        <v>2.3832851064909897</v>
       </c>
       <c r="Y5" s="20">
-        <f>'frgt-Rail'!AA10</f>
-        <v>2.5173265716434008</v>
+        <f>'frgt-Rail'!AC10</f>
+        <v>2.4671351986520373</v>
       </c>
       <c r="Z5" s="20">
-        <f>'frgt-Rail'!AB10</f>
-        <v>2.6091221926182611</v>
+        <f>'frgt-Rail'!AD10</f>
+        <v>2.5924827342678594</v>
       </c>
       <c r="AA5" s="20">
-        <f>'frgt-Rail'!AC10</f>
-        <v>2.7009178135931213</v>
+        <f>'frgt-Rail'!AE10</f>
+        <v>2.7178302698836809</v>
       </c>
       <c r="AB5" s="20">
-        <f>'frgt-Rail'!AD10</f>
-        <v>2.838143123344993</v>
+        <f>'frgt-Rail'!AF10</f>
+        <v>2.8431778054995029</v>
       </c>
       <c r="AC5" s="20">
-        <f>'frgt-Rail'!AE10</f>
-        <v>2.9753684330968646</v>
+        <f>'frgt-Rail'!AG10</f>
+        <v>2.9685253411153245</v>
       </c>
       <c r="AD5" s="20">
-        <f>'frgt-Rail'!AF10</f>
-        <v>3.1125937428487362</v>
+        <f>'frgt-Rail'!AH10</f>
+        <v>3.0938728767311465</v>
       </c>
       <c r="AE5" s="20">
-        <f>'frgt-Rail'!AG10</f>
-        <v>3.2498190526006079</v>
+        <f>'frgt-Rail'!AI10</f>
+        <v>3.2192204123469681</v>
       </c>
       <c r="AF5" s="20">
-        <f>'frgt-Rail'!AH10</f>
-        <v>3.3870443623524795</v>
+        <f>'frgt-Rail'!AJ10</f>
+        <v>3.3445679479627892</v>
       </c>
       <c r="AG5" s="20">
-        <f>'frgt-Rail'!AI10</f>
-        <v>3.5242696721043512</v>
+        <f>'frgt-Rail'!AK10</f>
+        <v>3.4699154835786112</v>
       </c>
       <c r="AH5" s="20">
-        <f>'frgt-Rail'!AJ10</f>
-        <v>3.6614949818562224</v>
+        <f>'frgt-Rail'!AL10</f>
+        <v>3.5952630191944328</v>
       </c>
       <c r="AI5" s="20">
-        <f>'frgt-Rail'!AK10</f>
-        <v>3.7987202916080944</v>
-      </c>
-      <c r="AJ5" s="20">
-        <f>'frgt-Rail'!AL10</f>
-        <v>3.9359456013599656</v>
-      </c>
-      <c r="AK5" s="20">
         <f>'frgt-Rail'!AM10</f>
-        <v>4.0731709111118377</v>
+        <v>3.7206105548102548</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="20">
+        <f>'frgt-Ship'!F10</f>
         <v>1</v>
       </c>
       <c r="C6" s="20">
-        <f>'frgt-Ship'!E10</f>
-        <v>1.0461046190754191</v>
+        <f>'frgt-Ship'!G10</f>
+        <v>1.0422122588465526</v>
       </c>
       <c r="D6" s="20">
-        <f>'frgt-Ship'!F10</f>
-        <v>1.0922092381508381</v>
+        <f>'frgt-Ship'!H10</f>
+        <v>1.0844245176931051</v>
       </c>
       <c r="E6" s="20">
-        <f>'frgt-Ship'!G10</f>
-        <v>1.1383138572262572</v>
+        <f>'frgt-Ship'!I10</f>
+        <v>1.1266367765396574</v>
       </c>
       <c r="F6" s="20">
-        <f>'frgt-Ship'!H10</f>
-        <v>1.1844184763016765</v>
+        <f>'frgt-Ship'!J10</f>
+        <v>1.1747086296788511</v>
       </c>
       <c r="G6" s="20">
-        <f>'frgt-Ship'!I10</f>
-        <v>1.2305230953770956</v>
+        <f>'frgt-Ship'!K10</f>
+        <v>1.2227804828180446</v>
       </c>
       <c r="H6" s="20">
-        <f>'frgt-Ship'!J10</f>
-        <v>1.2830276174707531</v>
+        <f>'frgt-Ship'!L10</f>
+        <v>1.2708523359572381</v>
       </c>
       <c r="I6" s="20">
-        <f>'frgt-Ship'!K10</f>
-        <v>1.3355321395644106</v>
+        <f>'frgt-Ship'!M10</f>
+        <v>1.3189241890964318</v>
       </c>
       <c r="J6" s="20">
-        <f>'frgt-Ship'!L10</f>
-        <v>1.3880366616580682</v>
+        <f>'frgt-Ship'!N10</f>
+        <v>1.3669960422356255</v>
       </c>
       <c r="K6" s="20">
-        <f>'frgt-Ship'!M10</f>
-        <v>1.4405411837517259</v>
+        <f>'frgt-Ship'!O10</f>
+        <v>1.415067895374819</v>
       </c>
       <c r="L6" s="20">
-        <f>'frgt-Ship'!N10</f>
-        <v>1.4930457058453834</v>
+        <f>'frgt-Ship'!P10</f>
+        <v>1.4631397485140125</v>
       </c>
       <c r="M6" s="20">
-        <f>'frgt-Ship'!O10</f>
-        <v>1.5455502279390412</v>
+        <f>'frgt-Ship'!Q10</f>
+        <v>1.511211601653206</v>
       </c>
       <c r="N6" s="20">
-        <f>'frgt-Ship'!P10</f>
-        <v>1.5980547500326987</v>
+        <f>'frgt-Ship'!R10</f>
+        <v>1.5592834547923999</v>
       </c>
       <c r="O6" s="20">
-        <f>'frgt-Ship'!Q10</f>
-        <v>1.6505592721263562</v>
+        <f>'frgt-Ship'!S10</f>
+        <v>1.6073553079315934</v>
       </c>
       <c r="P6" s="20">
-        <f>'frgt-Ship'!R10</f>
-        <v>1.703063794220014</v>
+        <f>'frgt-Ship'!T10</f>
+        <v>1.6418481445241191</v>
       </c>
       <c r="Q6" s="20">
-        <f>'frgt-Ship'!S10</f>
-        <v>1.7555683163136715</v>
+        <f>'frgt-Ship'!U10</f>
+        <v>1.6763409811166448</v>
       </c>
       <c r="R6" s="20">
-        <f>'frgt-Ship'!T10</f>
-        <v>1.7932417110900554</v>
+        <f>'frgt-Ship'!V10</f>
+        <v>1.7108338177091704</v>
       </c>
       <c r="S6" s="20">
-        <f>'frgt-Ship'!U10</f>
-        <v>1.8309151058664392</v>
+        <f>'frgt-Ship'!W10</f>
+        <v>1.7453266543016961</v>
       </c>
       <c r="T6" s="20">
-        <f>'frgt-Ship'!V10</f>
-        <v>1.8685885006428231</v>
+        <f>'frgt-Ship'!X10</f>
+        <v>1.7798194908942218</v>
       </c>
       <c r="U6" s="20">
-        <f>'frgt-Ship'!W10</f>
-        <v>1.906261895419207</v>
+        <f>'frgt-Ship'!Y10</f>
+        <v>1.8143123274867472</v>
       </c>
       <c r="V6" s="20">
-        <f>'frgt-Ship'!X10</f>
-        <v>1.9439352901955906</v>
+        <f>'frgt-Ship'!Z10</f>
+        <v>1.8488051640792729</v>
       </c>
       <c r="W6" s="20">
-        <f>'frgt-Ship'!Y10</f>
-        <v>1.9816086849719743</v>
+        <f>'frgt-Ship'!AA10</f>
+        <v>1.8832980006717985</v>
       </c>
       <c r="X6" s="20">
-        <f>'frgt-Ship'!Z10</f>
-        <v>2.0192820797483582</v>
+        <f>'frgt-Ship'!AB10</f>
+        <v>1.9177908372643244</v>
       </c>
       <c r="Y6" s="20">
-        <f>'frgt-Ship'!AA10</f>
-        <v>2.056955474524742</v>
+        <f>'frgt-Ship'!AC10</f>
+        <v>1.9522836738568501</v>
       </c>
       <c r="Z6" s="20">
-        <f>'frgt-Ship'!AB10</f>
-        <v>2.0946288693011259</v>
+        <f>'frgt-Ship'!AD10</f>
+        <v>1.9670636893374045</v>
       </c>
       <c r="AA6" s="20">
-        <f>'frgt-Ship'!AC10</f>
-        <v>2.1323022640775098</v>
+        <f>'frgt-Ship'!AE10</f>
+        <v>1.9818437048179587</v>
       </c>
       <c r="AB6" s="20">
-        <f>'frgt-Ship'!AD10</f>
-        <v>2.1484451335253838</v>
+        <f>'frgt-Ship'!AF10</f>
+        <v>1.9966237202985133</v>
       </c>
       <c r="AC6" s="20">
-        <f>'frgt-Ship'!AE10</f>
-        <v>2.1645880029732574</v>
+        <f>'frgt-Ship'!AG10</f>
+        <v>2.0114037357790675</v>
       </c>
       <c r="AD6" s="20">
-        <f>'frgt-Ship'!AF10</f>
-        <v>2.1807308724211314</v>
+        <f>'frgt-Ship'!AH10</f>
+        <v>2.0261837512596221</v>
       </c>
       <c r="AE6" s="20">
-        <f>'frgt-Ship'!AG10</f>
-        <v>2.196873741869005</v>
+        <f>'frgt-Ship'!AI10</f>
+        <v>2.0409637667401763</v>
       </c>
       <c r="AF6" s="20">
-        <f>'frgt-Ship'!AH10</f>
-        <v>2.213016611316879</v>
+        <f>'frgt-Ship'!AJ10</f>
+        <v>2.0557437822207305</v>
       </c>
       <c r="AG6" s="20">
-        <f>'frgt-Ship'!AI10</f>
-        <v>2.229159480764753</v>
+        <f>'frgt-Ship'!AK10</f>
+        <v>2.0705237977012851</v>
       </c>
       <c r="AH6" s="20">
-        <f>'frgt-Ship'!AJ10</f>
-        <v>2.245302350212627</v>
+        <f>'frgt-Ship'!AL10</f>
+        <v>2.0853038131818393</v>
       </c>
       <c r="AI6" s="20">
-        <f>'frgt-Ship'!AK10</f>
-        <v>2.261445219660501</v>
-      </c>
-      <c r="AJ6" s="20">
-        <f>'frgt-Ship'!AL10</f>
-        <v>2.2775880891083746</v>
-      </c>
-      <c r="AK6" s="20">
         <f>'frgt-Ship'!AM10</f>
-        <v>2.2937309585562486</v>
+        <v>2.100083828662394</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -54258,15 +54112,9 @@
       <c r="AI7" s="20">
         <v>0</v>
       </c>
-      <c r="AJ7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:37">
-      <c r="D10" s="7"/>
+    <row r="10" spans="1:35">
+      <c r="B10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54274,14 +54122,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475C6F59-F6AE-4688-B9CE-C41E8A68F462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -54326,14 +54174,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187DDEA9-B622-4309-9015-95F7115F0066}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -54377,18 +54225,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EC0DD6-99D1-44AF-9156-2AE96E6E3078}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:AK31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" customWidth="1"/>
-    <col min="2" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="37" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.86328125" customWidth="1"/>
+    <col min="2" max="4" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="37" width="12.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -56269,16 +56117,10 @@
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="12">
-        <f>SUM(B10:B19)</f>
-        <v>883287420.30000007</v>
-      </c>
-      <c r="C26" s="12">
-        <f t="shared" ref="C26:AK26" si="0">SUM(C10:C19)</f>
-        <v>936366511.49999976</v>
-      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C26:AK26" si="0">SUM(D10:D19)</f>
         <v>989775411.30000007</v>
       </c>
       <c r="E26" s="12">
@@ -56418,162 +56260,150 @@
       <c r="A27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25">
         <v>1</v>
       </c>
-      <c r="C27" s="25">
-        <f>C26/$B$26</f>
-        <v>1.060092660644903</v>
-      </c>
-      <c r="D27" s="25">
-        <f t="shared" ref="D27:AK27" si="1">D26/$B$26</f>
-        <v>1.1205587089237978</v>
-      </c>
       <c r="E27" s="25">
-        <f t="shared" si="1"/>
-        <v>1.181231364469824</v>
+        <f>E26/$D$26</f>
+        <v>1.054145003793953</v>
       </c>
       <c r="F27" s="25">
-        <f t="shared" si="1"/>
-        <v>1.2420250875161254</v>
+        <f t="shared" ref="F27:AK27" si="1">F26/$D$26</f>
+        <v>1.1083980496737968</v>
       </c>
       <c r="G27" s="25">
         <f t="shared" si="1"/>
-        <v>1.298470473464389</v>
+        <v>1.158770587496893</v>
       </c>
       <c r="H27" s="25">
         <f t="shared" si="1"/>
-        <v>1.3541719579386609</v>
+        <v>1.2084792587433717</v>
       </c>
       <c r="I27" s="25">
         <f t="shared" si="1"/>
-        <v>1.4095005266927383</v>
+        <v>1.2578551355389891</v>
       </c>
       <c r="J27" s="25">
         <f t="shared" si="1"/>
-        <v>1.4644883295164939</v>
+        <v>1.3069269087409185</v>
       </c>
       <c r="K27" s="25">
         <f t="shared" si="1"/>
-        <v>1.5192079142934443</v>
+        <v>1.3557593209484895</v>
       </c>
       <c r="L27" s="25">
         <f t="shared" si="1"/>
-        <v>1.5720721410036818</v>
+        <v>1.4029359894168549</v>
       </c>
       <c r="M27" s="25">
         <f t="shared" si="1"/>
-        <v>1.6217083329745228</v>
+        <v>1.4472319210584128</v>
       </c>
       <c r="N27" s="25">
         <f t="shared" si="1"/>
-        <v>1.6683391117934163</v>
+        <v>1.4888457860416036</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="1"/>
-        <v>1.7121086993698695</v>
+        <v>1.5279062897241729</v>
       </c>
       <c r="P27" s="25">
         <f t="shared" si="1"/>
-        <v>1.7531163699123722</v>
+        <v>1.5645020255976527</v>
       </c>
       <c r="Q27" s="25">
         <f t="shared" si="1"/>
-        <v>1.7914912447821709</v>
+        <v>1.5987482231098333</v>
       </c>
       <c r="R27" s="25">
         <f t="shared" si="1"/>
-        <v>1.827464481423454</v>
+        <v>1.6308511699298465</v>
       </c>
       <c r="S27" s="25">
         <f t="shared" si="1"/>
-        <v>1.8612530349858074</v>
+        <v>1.6610044794291805</v>
       </c>
       <c r="T27" s="25">
         <f t="shared" si="1"/>
-        <v>1.892997199094379</v>
+        <v>1.6893333513176148</v>
       </c>
       <c r="U27" s="25">
         <f t="shared" si="1"/>
-        <v>1.9228373537405847</v>
+        <v>1.7159630623792197</v>
       </c>
       <c r="V27" s="25">
         <f t="shared" si="1"/>
-        <v>1.9502567569811002</v>
+        <v>1.7404324659206454</v>
       </c>
       <c r="W27" s="25">
         <f t="shared" si="1"/>
-        <v>1.9748060437020127</v>
+        <v>1.7623405431373136</v>
       </c>
       <c r="X27" s="25">
         <f t="shared" si="1"/>
-        <v>1.9967377523129886</v>
+        <v>1.7819126623277837</v>
       </c>
       <c r="Y27" s="25">
         <f t="shared" si="1"/>
-        <v>2.0162898311905693</v>
+        <v>1.799361171470476</v>
       </c>
       <c r="Z27" s="25">
         <f t="shared" si="1"/>
-        <v>2.0336745779681742</v>
+        <v>1.8148755275137232</v>
       </c>
       <c r="AA27" s="25">
         <f t="shared" si="1"/>
-        <v>2.0490984547479578</v>
+        <v>1.8286399797079298</v>
       </c>
       <c r="AB27" s="25">
         <f t="shared" si="1"/>
-        <v>2.0627556362031885</v>
+        <v>1.8408278118549375</v>
       </c>
       <c r="AC27" s="25">
         <f t="shared" si="1"/>
-        <v>2.0748147943442863</v>
+        <v>1.8515895488751064</v>
       </c>
       <c r="AD27" s="25">
         <f t="shared" si="1"/>
-        <v>2.0854502854083492</v>
+        <v>1.8610807883606995</v>
       </c>
       <c r="AE27" s="25">
         <f t="shared" si="1"/>
-        <v>2.0947680642067437</v>
+        <v>1.8693960856531935</v>
       </c>
       <c r="AF27" s="25">
         <f t="shared" si="1"/>
-        <v>2.102915225922187</v>
+        <v>1.8766667102537264</v>
       </c>
       <c r="AG27" s="25">
         <f t="shared" si="1"/>
-        <v>2.1100282343763839</v>
+        <v>1.8830144441096603</v>
       </c>
       <c r="AH27" s="25">
         <f t="shared" si="1"/>
-        <v>2.1162347432708706</v>
+        <v>1.8885532069116984</v>
       </c>
       <c r="AI27" s="25">
         <f t="shared" si="1"/>
-        <v>2.1216530341757887</v>
+        <v>1.8933885545483444</v>
       </c>
       <c r="AJ27" s="25">
         <f t="shared" si="1"/>
-        <v>2.1263846158004656</v>
+        <v>1.8976110746064154</v>
       </c>
       <c r="AK27" s="25">
         <f t="shared" si="1"/>
-        <v>2.1425888954257077</v>
+        <v>1.912071967637897</v>
       </c>
     </row>
     <row r="28" spans="1:37">
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="12">
-        <f>SUM(B22:B24)</f>
-        <v>837695424.37599993</v>
-      </c>
-      <c r="C28" s="12">
-        <f>SUM(C22:C24)</f>
-        <v>872581329.95799994</v>
-      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="12">
         <f t="shared" ref="D28:AK28" si="2">SUM(D22:D24)</f>
         <v>907807385.39999998</v>
@@ -56715,162 +56545,150 @@
       <c r="A29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25">
         <v>1</v>
       </c>
-      <c r="C29" s="25">
-        <f>C28/$B$28</f>
-        <v>1.0416450950630256</v>
-      </c>
-      <c r="D29" s="25">
-        <f t="shared" ref="D29:AK29" si="3">D28/$B$28</f>
-        <v>1.0836962444628684</v>
-      </c>
       <c r="E29" s="25">
-        <f t="shared" si="3"/>
-        <v>1.1262312297584391</v>
+        <f>E28/$D$28</f>
+        <v>1.0392499148289038</v>
       </c>
       <c r="F29" s="25">
-        <f t="shared" si="3"/>
-        <v>1.1689440094929742</v>
+        <f t="shared" ref="F29:AK29" si="3">F28/$D$28</f>
+        <v>1.0786638926412064</v>
       </c>
       <c r="G29" s="25">
         <f t="shared" si="3"/>
-        <v>1.2080047816579067</v>
+        <v>1.1147079154608046</v>
       </c>
       <c r="H29" s="25">
         <f t="shared" si="3"/>
-        <v>1.2463883327308907</v>
+        <v>1.1501270204628791</v>
       </c>
       <c r="I29" s="25">
         <f t="shared" si="3"/>
-        <v>1.2844305221555443</v>
+        <v>1.1852311279275212</v>
       </c>
       <c r="J29" s="25">
         <f t="shared" si="3"/>
-        <v>1.3219482106051927</v>
+        <v>1.2198512427810557</v>
       </c>
       <c r="K29" s="25">
         <f t="shared" si="3"/>
-        <v>1.3588268524753468</v>
+        <v>1.2538816660279617</v>
       </c>
       <c r="L29" s="25">
         <f t="shared" si="3"/>
-        <v>1.395113831690213</v>
+        <v>1.2873661220277623</v>
       </c>
       <c r="M29" s="25">
         <f t="shared" si="3"/>
-        <v>1.4307203598179328</v>
+        <v>1.3202226796744745</v>
       </c>
       <c r="N29" s="25">
         <f t="shared" si="3"/>
-        <v>1.4659438039685917</v>
+        <v>1.352725739762237</v>
       </c>
       <c r="O29" s="25">
         <f t="shared" si="3"/>
-        <v>1.5008073619660034</v>
+        <v>1.3848967084959081</v>
       </c>
       <c r="P29" s="25">
         <f t="shared" si="3"/>
-        <v>1.5353228497339531</v>
+        <v>1.416746489229491</v>
       </c>
       <c r="Q29" s="25">
         <f t="shared" si="3"/>
-        <v>1.5695259943905435</v>
+        <v>1.4483080497971785</v>
       </c>
       <c r="R29" s="25">
         <f t="shared" si="3"/>
-        <v>1.6035707354120745</v>
+        <v>1.4797234405909385</v>
       </c>
       <c r="S29" s="25">
         <f t="shared" si="3"/>
-        <v>1.6375517115270486</v>
+        <v>1.5110799911821207</v>
       </c>
       <c r="T29" s="25">
         <f t="shared" si="3"/>
-        <v>1.6716503929052391</v>
+        <v>1.5425451564001578</v>
       </c>
       <c r="U29" s="25">
         <f t="shared" si="3"/>
-        <v>1.7059266184617619</v>
+        <v>1.5741741536691403</v>
       </c>
       <c r="V29" s="25">
         <f t="shared" si="3"/>
-        <v>1.7404585722178003</v>
+        <v>1.6060391286863365</v>
       </c>
       <c r="W29" s="25">
         <f t="shared" si="3"/>
-        <v>1.7750780507670658</v>
+        <v>1.6379848687644747</v>
       </c>
       <c r="X29" s="25">
         <f t="shared" si="3"/>
-        <v>1.8099996104590306</v>
+        <v>1.6702093595942584</v>
       </c>
       <c r="Y29" s="25">
         <f t="shared" si="3"/>
-        <v>1.8452522172608248</v>
+        <v>1.7027393300374678</v>
       </c>
       <c r="Z29" s="25">
         <f t="shared" si="3"/>
-        <v>1.8806049259672841</v>
+        <v>1.735361671295079</v>
       </c>
       <c r="AA29" s="25">
         <f t="shared" si="3"/>
-        <v>1.9158686851179185</v>
+        <v>1.7679019327666992</v>
       </c>
       <c r="AB29" s="25">
         <f t="shared" si="3"/>
-        <v>1.9510385334734281</v>
+        <v>1.8003555363804511</v>
       </c>
       <c r="AC29" s="25">
         <f t="shared" si="3"/>
-        <v>1.9860510588601927</v>
+        <v>1.8326639674243534</v>
       </c>
       <c r="AD29" s="25">
         <f t="shared" si="3"/>
-        <v>2.0209028520969223</v>
+        <v>1.8648240800156857</v>
       </c>
       <c r="AE29" s="25">
         <f t="shared" si="3"/>
-        <v>2.0555595529666437</v>
+        <v>1.8968041676526035</v>
       </c>
       <c r="AF29" s="25">
         <f t="shared" si="3"/>
-        <v>2.0899463518536545</v>
+        <v>1.9285351984305636</v>
       </c>
       <c r="AG29" s="25">
         <f t="shared" si="3"/>
-        <v>2.1240530005818012</v>
+        <v>1.9600077156625964</v>
       </c>
       <c r="AH29" s="25">
         <f t="shared" si="3"/>
-        <v>2.157875854718422</v>
+        <v>1.9912183563835897</v>
       </c>
       <c r="AI29" s="25">
         <f t="shared" si="3"/>
-        <v>2.1913861968587653</v>
+        <v>2.0221406210971238</v>
       </c>
       <c r="AJ29" s="25">
         <f t="shared" si="3"/>
-        <v>2.2245518140329352</v>
-      </c>
-      <c r="AK29" s="12">
+        <v>2.0527447847118165</v>
+      </c>
+      <c r="AK29" s="25">
         <f t="shared" si="3"/>
-        <v>2.2694334710188571</v>
+        <v>2.0941601326151096</v>
       </c>
     </row>
     <row r="30" spans="1:37">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="12">
-        <f>SUM(B20:B21)</f>
-        <v>151574889.19999999</v>
-      </c>
-      <c r="C30" s="12">
-        <f>SUM(C20:C21)</f>
-        <v>157930694</v>
-      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="12">
         <f t="shared" ref="D30:AK30" si="4">SUM(D20:D21)</f>
         <v>164878851.19999999</v>
@@ -57012,148 +56830,142 @@
       <c r="A31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25">
         <v>1</v>
       </c>
-      <c r="C31" s="25">
-        <f>C30/$B$30</f>
-        <v>1.0419317792910516</v>
-      </c>
-      <c r="D31" s="25">
-        <f t="shared" ref="D31:AK31" si="5">D30/$B$30</f>
-        <v>1.0877715436258422</v>
-      </c>
       <c r="E31" s="25">
-        <f t="shared" si="5"/>
-        <v>1.1378970125613659</v>
+        <f>E30/$D$30</f>
+        <v>1.046080879049696</v>
       </c>
       <c r="F31" s="25">
-        <f t="shared" si="5"/>
-        <v>1.1920348875306981</v>
+        <f t="shared" ref="F31:AK31" si="5">F30/$D$30</f>
+        <v>1.0958504058281553</v>
       </c>
       <c r="G31" s="25">
         <f t="shared" si="5"/>
-        <v>1.2504865034069246</v>
+        <v>1.1495856007031664</v>
       </c>
       <c r="H31" s="25">
         <f t="shared" si="5"/>
-        <v>1.3140819581084016</v>
+        <v>1.2080495815584624</v>
       </c>
       <c r="I31" s="25">
         <f t="shared" si="5"/>
-        <v>1.3833437365956527</v>
+        <v>1.2717226743996142</v>
       </c>
       <c r="J31" s="25">
         <f t="shared" si="5"/>
-        <v>1.4584606168394283</v>
+        <v>1.3407784248317227</v>
       </c>
       <c r="K31" s="25">
         <f t="shared" si="5"/>
-        <v>1.5392657822902769</v>
+        <v>1.4150634766188863</v>
       </c>
       <c r="L31" s="25">
         <f t="shared" si="5"/>
-        <v>1.6197266163002415</v>
+        <v>1.4890319808341801</v>
       </c>
       <c r="M31" s="25">
         <f t="shared" si="5"/>
-        <v>1.6948026665620022</v>
+        <v>1.5580501958276625</v>
       </c>
       <c r="N31" s="25">
         <f t="shared" si="5"/>
-        <v>1.7649494174923008</v>
+        <v>1.6225368532892837</v>
       </c>
       <c r="O31" s="25">
         <f t="shared" si="5"/>
-        <v>1.8304806440194978</v>
+        <v>1.6827804098625356</v>
       </c>
       <c r="P31" s="25">
         <f t="shared" si="5"/>
-        <v>1.8916890278683445</v>
+        <v>1.7390499309835077</v>
       </c>
       <c r="Q31" s="25">
         <f t="shared" si="5"/>
-        <v>1.948847946774551</v>
+        <v>1.7915967357249518</v>
       </c>
       <c r="R31" s="25">
         <f t="shared" si="5"/>
-        <v>2.0023748762205926</v>
+        <v>1.8408046137575225</v>
       </c>
       <c r="S31" s="25">
         <f t="shared" si="5"/>
-        <v>2.0526415875486586</v>
+        <v>1.8870153384474819</v>
       </c>
       <c r="T31" s="25">
         <f t="shared" si="5"/>
-        <v>2.0999502020417773</v>
+        <v>1.9305066531176802</v>
       </c>
       <c r="U31" s="25">
         <f t="shared" si="5"/>
-        <v>2.1446443861230282</v>
+        <v>1.9715944939820154</v>
       </c>
       <c r="V31" s="25">
         <f t="shared" si="5"/>
-        <v>2.1854432046650643</v>
+        <v>2.0091012836945339</v>
       </c>
       <c r="W31" s="25">
         <f t="shared" si="5"/>
-        <v>2.2216357325234317</v>
+        <v>2.0423734611755959</v>
       </c>
       <c r="X31" s="25">
         <f t="shared" si="5"/>
-        <v>2.2537927660909682</v>
+        <v>2.0719357656465771</v>
       </c>
       <c r="Y31" s="25">
         <f t="shared" si="5"/>
-        <v>2.2822257896791522</v>
+        <v>2.0980745479624012</v>
       </c>
       <c r="Z31" s="25">
         <f t="shared" si="5"/>
-        <v>2.3073587363044568</v>
+        <v>2.1211795342737081</v>
       </c>
       <c r="AA31" s="25">
         <f t="shared" si="5"/>
-        <v>2.3295682910517348</v>
+        <v>2.1415970152028816</v>
       </c>
       <c r="AB31" s="25">
         <f t="shared" si="5"/>
-        <v>2.3492088714652346</v>
+        <v>2.1596528105843573</v>
       </c>
       <c r="AC31" s="25">
         <f t="shared" si="5"/>
-        <v>2.3666051645710193</v>
+        <v>2.1756454086696113</v>
       </c>
       <c r="AD31" s="25">
         <f t="shared" si="5"/>
-        <v>2.3820432415001891</v>
+        <v>2.1898377977053736</v>
       </c>
       <c r="AE31" s="25">
         <f t="shared" si="5"/>
-        <v>2.3957909302565406</v>
+        <v>2.2024761948365641</v>
       </c>
       <c r="AF31" s="25">
         <f t="shared" si="5"/>
-        <v>2.4080818025100692</v>
+        <v>2.2137753249945011</v>
       </c>
       <c r="AG31" s="25">
         <f t="shared" si="5"/>
-        <v>2.4191404126060219</v>
+        <v>2.2239416233875362</v>
       </c>
       <c r="AH31" s="25">
         <f t="shared" si="5"/>
-        <v>2.4291675299473026</v>
+        <v>2.2331596594724457</v>
       </c>
       <c r="AI31" s="25">
         <f t="shared" si="5"/>
-        <v>2.4383340166083394</v>
+        <v>2.241586508579458</v>
       </c>
       <c r="AJ31" s="25">
         <f t="shared" si="5"/>
-        <v>2.4467887283799512</v>
+        <v>2.249359015427201</v>
       </c>
       <c r="AK31" s="25">
         <f t="shared" si="5"/>
-        <v>2.4546576307178984</v>
+        <v>2.2565929814047614</v>
       </c>
     </row>
   </sheetData>
@@ -57162,14 +56974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27508546-02B1-46E2-AF94-38F4DCFCEBF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
@@ -57438,148 +57250,142 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="13">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
         <v>1</v>
       </c>
-      <c r="E11" s="13">
-        <f>E10/$D$10</f>
-        <v>1.0840757207428873</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" ref="F11:AM11" si="0">F10/$D$10</f>
-        <v>1.1664000000000003</v>
-      </c>
       <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>1.2597120000000006</v>
+        <f>G10/$F$10</f>
+        <v>1.08</v>
       </c>
       <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>1.3604889600000003</v>
+        <f t="shared" ref="H11:AM11" si="0">H10/$F$10</f>
+        <v>1.1663999999999999</v>
       </c>
       <c r="I11" s="13">
         <f t="shared" si="0"/>
-        <v>1.435574753457721</v>
+        <v>1.2307739655844654</v>
       </c>
       <c r="J11" s="13">
         <f t="shared" si="0"/>
-        <v>1.5145030957790198</v>
+        <v>1.298442297478583</v>
       </c>
       <c r="K11" s="13">
         <f t="shared" si="0"/>
-        <v>1.5977709426831235</v>
+        <v>1.3698310551124167</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>1.6856168814692234</v>
+        <v>1.4451447886395943</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>1.778292617039744</v>
+        <v>1.5245992944442244</v>
       </c>
       <c r="N11" s="13">
         <f t="shared" si="0"/>
-        <v>1.8760636931102075</v>
+        <v>1.6084222334621114</v>
       </c>
       <c r="O11" s="13">
         <f t="shared" si="0"/>
-        <v>1.9729383484414655</v>
+        <v>1.6914766361809541</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="0"/>
-        <v>2.0748153386508066</v>
+        <v>1.7788197347829269</v>
       </c>
       <c r="Q11" s="13">
         <f t="shared" si="0"/>
-        <v>2.1819529702493292</v>
+        <v>1.8706729854675312</v>
       </c>
       <c r="R11" s="13">
         <f t="shared" si="0"/>
-        <v>2.2946228879702417</v>
+        <v>1.9672692798098774</v>
       </c>
       <c r="S11" s="13">
         <f t="shared" si="0"/>
-        <v>2.4131107635171607</v>
+        <v>2.0688535352513373</v>
       </c>
       <c r="T11" s="13">
         <f t="shared" si="0"/>
-        <v>2.4994193938255829</v>
+        <v>2.1428492745418226</v>
       </c>
       <c r="U11" s="13">
         <f t="shared" si="0"/>
-        <v>2.5888149854862714</v>
+        <v>2.2194915856363773</v>
       </c>
       <c r="V11" s="13">
         <f t="shared" si="0"/>
-        <v>2.6814079484357101</v>
+        <v>2.2988751272596959</v>
       </c>
       <c r="W11" s="13">
         <f t="shared" si="0"/>
-        <v>2.7773126415921441</v>
+        <v>2.3810979437518376</v>
       </c>
       <c r="X11" s="13">
         <f t="shared" si="0"/>
-        <v>2.8766475140970047</v>
+        <v>2.4662615861599826</v>
       </c>
       <c r="Y11" s="13">
         <f t="shared" si="0"/>
-        <v>2.9707211328202652</v>
+        <v>2.5469145514577023</v>
       </c>
       <c r="Z11" s="13">
         <f t="shared" si="0"/>
-        <v>3.0678711958059237</v>
+        <v>2.6302050718500709</v>
       </c>
       <c r="AA11" s="13">
         <f t="shared" si="0"/>
-        <v>3.1681983105295761</v>
+        <v>2.7162194020315287</v>
       </c>
       <c r="AB11" s="13">
         <f t="shared" si="0"/>
-        <v>3.2718063745846515</v>
+        <v>2.8050466174422586</v>
       </c>
       <c r="AC11" s="13">
         <f t="shared" si="0"/>
-        <v>3.3788026832775597</v>
+        <v>2.8967787065136821</v>
       </c>
       <c r="AD11" s="13">
         <f t="shared" si="0"/>
-        <v>3.479515371122885</v>
+        <v>2.9831236035004145</v>
       </c>
       <c r="AE11" s="13">
         <f t="shared" si="0"/>
-        <v>3.583230023404675</v>
+        <v>3.072042201135694</v>
       </c>
       <c r="AF11" s="13">
         <f t="shared" si="0"/>
-        <v>3.690036120313267</v>
+        <v>3.1636112142603441</v>
       </c>
       <c r="AG11" s="13">
         <f t="shared" si="0"/>
-        <v>3.800025809194</v>
+        <v>3.2579096443707121</v>
       </c>
       <c r="AH11" s="13">
         <f t="shared" si="0"/>
-        <v>3.9132939840476726</v>
+        <v>3.355018847777496</v>
       </c>
       <c r="AI11" s="13">
         <f t="shared" si="0"/>
-        <v>4.0194534708910483</v>
+        <v>3.4460334969916384</v>
       </c>
       <c r="AJ11" s="13">
         <f t="shared" si="0"/>
-        <v>4.1284928427348353</v>
+        <v>3.5395171834146377</v>
       </c>
       <c r="AK11" s="13">
         <f t="shared" si="0"/>
-        <v>4.2404902248400127</v>
+        <v>3.6355368868655789</v>
       </c>
       <c r="AL11" s="13">
         <f t="shared" si="0"/>
-        <v>4.3555258618426143</v>
+        <v>3.7341614041860534</v>
       </c>
       <c r="AM11" s="13">
         <f t="shared" si="0"/>
-        <v>4.4736821752479283</v>
+        <v>3.835461398532173</v>
       </c>
     </row>
     <row r="18" ht="105.75" customHeight="1"/>
@@ -57589,16 +57395,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF704582-EE4A-48B1-8C47-5E6F3692F94D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -57984,148 +57790,142 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
-        <f>E9/$D$9</f>
-        <v>1.01</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" ref="F10:AK10" si="0">F9/$D$9</f>
-        <v>1.02</v>
-      </c>
       <c r="G10" s="7">
-        <f t="shared" si="0"/>
-        <v>1.03</v>
+        <f>G9/$F$9</f>
+        <v>1.0098039215686274</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
-        <v>1.04</v>
+        <f t="shared" ref="H10:AM10" si="0">H9/$F$9</f>
+        <v>1.0196078431372548</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="0"/>
-        <v>1.05</v>
+        <v>1.0294117647058825</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
+        <v>1.0980392156862746</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="0"/>
-        <v>1.19</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="0"/>
-        <v>1.26</v>
+        <v>1.2352941176470587</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="0"/>
-        <v>1.3299999999999998</v>
+        <v>1.3039215686274508</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>1.3725490196078431</v>
       </c>
       <c r="O10" s="7">
         <f t="shared" si="0"/>
-        <v>1.47</v>
+        <v>1.4411764705882353</v>
       </c>
       <c r="P10" s="7">
         <f t="shared" si="0"/>
-        <v>1.54</v>
+        <v>1.5098039215686274</v>
       </c>
       <c r="Q10" s="7">
         <f t="shared" si="0"/>
-        <v>1.6099999999999999</v>
+        <v>1.5784313725490196</v>
       </c>
       <c r="R10" s="7">
         <f t="shared" si="0"/>
-        <v>1.68</v>
+        <v>1.6470588235294117</v>
       </c>
       <c r="S10" s="7">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>1.7156862745098038</v>
       </c>
       <c r="T10" s="7">
         <f t="shared" si="0"/>
-        <v>1.8374999999999999</v>
+        <v>1.8014705882352939</v>
       </c>
       <c r="U10" s="7">
         <f t="shared" si="0"/>
-        <v>1.9249999999999998</v>
+        <v>1.8872549019607843</v>
       </c>
       <c r="V10" s="7">
         <f t="shared" si="0"/>
-        <v>2.0124999999999997</v>
+        <v>1.9730392156862744</v>
       </c>
       <c r="W10" s="7">
         <f t="shared" si="0"/>
-        <v>2.1</v>
+        <v>2.0588235294117645</v>
       </c>
       <c r="X10" s="7">
         <f t="shared" si="0"/>
-        <v>2.1875</v>
+        <v>2.1446078431372548</v>
       </c>
       <c r="Y10" s="7">
         <f t="shared" si="0"/>
-        <v>2.2749999999999999</v>
+        <v>2.2303921568627447</v>
       </c>
       <c r="Z10" s="7">
         <f t="shared" si="0"/>
-        <v>2.3624999999999998</v>
+        <v>2.3161764705882351</v>
       </c>
       <c r="AA10" s="7">
         <f t="shared" si="0"/>
-        <v>2.4499999999999997</v>
+        <v>2.4019607843137254</v>
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="0"/>
-        <v>2.5375000000000001</v>
+        <v>2.4877450980392157</v>
       </c>
       <c r="AC10" s="7">
         <f t="shared" si="0"/>
-        <v>2.625</v>
+        <v>2.5735294117647056</v>
       </c>
       <c r="AD10" s="7">
         <f t="shared" si="0"/>
-        <v>2.6774999999999998</v>
+        <v>2.625</v>
       </c>
       <c r="AE10" s="7">
         <f t="shared" si="0"/>
-        <v>2.73</v>
+        <v>2.6764705882352939</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="0"/>
-        <v>2.7824999999999998</v>
+        <v>2.7279411764705879</v>
       </c>
       <c r="AG10" s="7">
         <f t="shared" si="0"/>
-        <v>2.835</v>
+        <v>2.7794117647058822</v>
       </c>
       <c r="AH10" s="7">
         <f t="shared" si="0"/>
-        <v>2.8874999999999997</v>
+        <v>2.8308823529411762</v>
       </c>
       <c r="AI10" s="7">
         <f t="shared" si="0"/>
-        <v>2.94</v>
+        <v>2.8823529411764706</v>
       </c>
       <c r="AJ10" s="7">
         <f t="shared" si="0"/>
-        <v>2.9924999999999997</v>
+        <v>2.9338235294117645</v>
       </c>
       <c r="AK10" s="7">
         <f t="shared" si="0"/>
-        <v>3.0449999999999999</v>
+        <v>2.9852941176470584</v>
       </c>
       <c r="AL10" s="7">
-        <f t="shared" ref="AL10" si="1">AL9/$D$9</f>
-        <v>3.0974999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.0367647058823528</v>
       </c>
       <c r="AM10" s="7">
-        <f t="shared" ref="AM10" si="2">AM9/$D$9</f>
-        <v>3.15</v>
+        <f t="shared" si="0"/>
+        <v>3.0882352941176467</v>
       </c>
     </row>
     <row r="21" ht="101.25" customHeight="1"/>
@@ -58135,14 +57935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C793A903-6AEF-4632-8117-A402D7A421E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:AM10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
   </cols>
@@ -58530,148 +58330,142 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
-        <f>E9/$D$9</f>
-        <v>1.0124137931034483</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" ref="F10:AJ10" si="0">F9/$D$9</f>
-        <v>1.0248275862068965</v>
-      </c>
       <c r="G10" s="7">
-        <f t="shared" si="0"/>
-        <v>1.0372413793103448</v>
+        <f>G9/$F$9</f>
+        <v>1.0121130551816957</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
-        <v>1.049655172413793</v>
+        <f t="shared" ref="H10:AM10" si="0">H9/$F$9</f>
+        <v>1.0242261103633916</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="0"/>
-        <v>1.0620689655172413</v>
+        <v>1.0363391655450875</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="0"/>
-        <v>1.0715716878402903</v>
+        <v>1.0456116738683856</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="0"/>
-        <v>1.0810744101633394</v>
+        <v>1.0548841821916839</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="0"/>
-        <v>1.0905771324863882</v>
+        <v>1.064156690514982</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1000798548094375</v>
+        <v>1.0734291988382803</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1095825771324863</v>
+        <v>1.0827017071615783</v>
       </c>
       <c r="O10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1190852994555354</v>
+        <v>1.0919742154848764</v>
       </c>
       <c r="P10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1285880217785844</v>
+        <v>1.1012467238081747</v>
       </c>
       <c r="Q10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1380907441016332</v>
+        <v>1.1105192321314727</v>
       </c>
       <c r="R10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1475934664246825</v>
+        <v>1.119791740454771</v>
       </c>
       <c r="S10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1570961887477313</v>
+        <v>1.1290642487780691</v>
       </c>
       <c r="T10" s="7">
         <f t="shared" si="0"/>
-        <v>1.159687840290381</v>
+        <v>1.1315931146844231</v>
       </c>
       <c r="U10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1622794918330308</v>
+        <v>1.1341219805907772</v>
       </c>
       <c r="V10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1648711433756807</v>
+        <v>1.1366508464971312</v>
       </c>
       <c r="W10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1674627949183303</v>
+        <v>1.1391797124034853</v>
       </c>
       <c r="X10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1700544464609801</v>
+        <v>1.1417085783098393</v>
       </c>
       <c r="Y10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1726460980036297</v>
+        <v>1.1442374442161933</v>
       </c>
       <c r="Z10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1752377495462794</v>
+        <v>1.1467663101225474</v>
       </c>
       <c r="AA10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1778294010889292</v>
+        <v>1.1492951760289014</v>
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="0"/>
-        <v>1.180421052631579</v>
+        <v>1.1518240419352554</v>
       </c>
       <c r="AC10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1830127041742287</v>
+        <v>1.1543529078416095</v>
       </c>
       <c r="AD10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1820980036297639</v>
+        <v>1.1534603669334844</v>
       </c>
       <c r="AE10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1811833030852994</v>
+        <v>1.1525678260253596</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1802686025408349</v>
+        <v>1.1516752851172345</v>
       </c>
       <c r="AG10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1793539019963704</v>
+        <v>1.1507827442091099</v>
       </c>
       <c r="AH10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1784392014519056</v>
+        <v>1.1498902033009848</v>
       </c>
       <c r="AI10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1775245009074409</v>
+        <v>1.1489976623928597</v>
       </c>
       <c r="AJ10" s="7">
         <f t="shared" si="0"/>
-        <v>1.1766098003629764</v>
+        <v>1.1481051214847349</v>
       </c>
       <c r="AK10" s="7">
-        <f t="shared" ref="AK10:AM10" si="1">AK9/$B$9</f>
-        <v>1.205627931214174</v>
+        <f t="shared" si="0"/>
+        <v>1.1472125805766098</v>
       </c>
       <c r="AL10" s="7">
-        <f t="shared" si="1"/>
-        <v>1.2046899426784785</v>
+        <f t="shared" si="0"/>
+        <v>1.1463200396684849</v>
       </c>
       <c r="AM10" s="7">
-        <f t="shared" si="1"/>
-        <v>1.2037519541427828</v>
+        <f t="shared" si="0"/>
+        <v>1.1454274987603599</v>
       </c>
     </row>
   </sheetData>
@@ -58680,22 +58474,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C23239E-9368-47E3-89B0-03806F8937CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I13" sqref="I13:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -58851,12 +58645,6 @@
       <c r="G13" s="14">
         <v>484636452369.75842</v>
       </c>
-      <c r="I13" s="14">
-        <v>100</v>
-      </c>
-      <c r="J13" s="14">
-        <v>100</v>
-      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2">
@@ -58880,14 +58668,6 @@
       <c r="G14">
         <v>502424903639.16614</v>
       </c>
-      <c r="I14">
-        <f>B14/$B$13</f>
-        <v>1.0507050631936288</v>
-      </c>
-      <c r="J14">
-        <f>AVERAGE(C14:G14)/AVERAGE($C$13:$G$13)</f>
-        <v>1.0286734233225316</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2">
@@ -58912,12 +58692,10 @@
         <v>521364980148.94122</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:I48" si="0">B15/$B$13</f>
-        <v>1.1016554748837066</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J48" si="1">AVERAGE(C15:G15)/AVERAGE($C$13:$G$13)</f>
-        <v>1.0589549394611451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -58943,12 +58721,12 @@
         <v>540632477488.33142</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>1.1511921185960858</v>
+        <f>B16/$B$15</f>
+        <v>1.0449656402039924</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>1.0899064565523837</v>
+        <f>AVERAGE(C15:G16)/AVERAGE($C$15:$G$15)</f>
+        <v>1.014614180423479</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -58974,12 +58752,12 @@
         <v>558745143522.88293</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>1.1993715241985734</v>
+        <f t="shared" ref="I17:I48" si="0">B17/$B$15</f>
+        <v>1.0886992817107199</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>1.1200748410546817</v>
+        <f t="shared" ref="J17:J48" si="1">AVERAGE(C16:G17)/AVERAGE($C$15:$G$15)</f>
+        <v>1.0434727745505517</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -59006,11 +58784,11 @@
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>1.2462247450030564</v>
+        <v>1.131229112381628</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>1.1390589429553784</v>
+        <v>1.066680790572464</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -59037,11 +58815,11 @@
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>1.2767326627830922</v>
+        <v>1.158921906068562</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>1.1469733925716328</v>
+        <v>1.0793813080895922</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -59068,11 +58846,11 @@
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>1.2917871945127062</v>
+        <v>1.1725872779319417</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>1.1493183754625642</v>
+        <v>1.084225438904264</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -59099,11 +58877,11 @@
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>1.3061567030264734</v>
+        <v>1.1856308372309903</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>1.1526348949102219</v>
+        <v>1.0868985943557465</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -59130,11 +58908,11 @@
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>1.3199123427560264</v>
+        <v>1.1981171726082145</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>1.1558528169575912</v>
+        <v>1.0899839199213233</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -59161,11 +58939,11 @@
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>1.3331051920647485</v>
+        <v>1.210092649161004</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>1.1633912384452547</v>
+        <v>1.0950626740468323</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -59192,11 +58970,11 @@
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>1.3476032745150315</v>
+        <v>1.2232529182113743</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>1.1716776016215644</v>
+        <v>1.1025345616948683</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -59223,11 +59001,11 @@
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>1.3652427803551772</v>
+        <v>1.2392647351925479</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>1.1829053589203393</v>
+        <v>1.1117484195031215</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -59254,11 +59032,11 @@
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>1.3862673767472724</v>
+        <v>1.2583492828314677</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>1.1972457481200107</v>
+        <v>1.1238207681676724</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -59285,11 +59063,11 @@
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>1.4109521977710342</v>
+        <v>1.2807563071567158</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>1.2142838632195785</v>
+        <v>1.1386365564179288</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -59316,11 +59094,11 @@
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>1.4396097116535667</v>
+        <v>1.3067694433284918</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>1.2299324980507955</v>
+        <v>1.1540700506643498</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -59347,11 +59125,11 @@
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>1.4725525494962546</v>
+        <v>1.3366724743520209</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>1.2533629608256176</v>
+        <v>1.1725217789437061</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -59378,11 +59156,11 @@
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>1.5083353612436408</v>
+        <v>1.3691534201315199</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>1.2785779051031201</v>
+        <v>1.1954903705426454</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -59409,11 +59187,11 @@
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>1.5446571118777652</v>
+        <v>1.4021235741063447</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>1.3041427001072152</v>
+        <v>1.2194667161780115</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -59440,11 +59218,11 @@
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>1.5808242935486072</v>
+        <v>1.4349534219992715</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>1.3294230482148359</v>
+        <v>1.2434739431227146</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -59471,11 +59249,11 @@
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>1.616824685204886</v>
+        <v>1.4676318704589217</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>1.3491750105124045</v>
+        <v>1.2647365619212561</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -59502,11 +59280,11 @@
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>1.6521366951414904</v>
+        <v>1.4996854577570125</v>
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>1.3733069109939642</v>
+        <v>1.2854569255287287</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -59533,11 +59311,11 @@
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>1.6867798922621657</v>
+        <v>1.5311319470728599</v>
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
-        <v>1.3970157011752049</v>
+        <v>1.3080455593223177</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -59564,11 +59342,11 @@
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>1.7212193121472197</v>
+        <v>1.5623934627374458</v>
       </c>
       <c r="J36">
         <f t="shared" si="1"/>
-        <v>1.4205898422887238</v>
+        <v>1.330370839432357</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -59595,11 +59373,11 @@
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>1.755371514747383</v>
+        <v>1.5933942641484029</v>
       </c>
       <c r="J37">
         <f t="shared" si="1"/>
-        <v>1.4440153474810717</v>
+        <v>1.3525623626759158</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -59626,11 +59404,11 @@
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>1.7891773907438846</v>
+        <v>1.6240806963109355</v>
       </c>
       <c r="J38">
         <f t="shared" si="1"/>
-        <v>1.4616469729781201</v>
+        <v>1.3719480462208113</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -59657,11 +59435,11 @@
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>1.8256466656519508</v>
+        <v>1.6571847617284075</v>
       </c>
       <c r="J39">
         <f t="shared" si="1"/>
-        <v>1.4890139890990668</v>
+        <v>1.3931947678428349</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -59688,11 +59466,11 @@
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>1.8677914617534535</v>
+        <v>1.6954406385087153</v>
       </c>
       <c r="J40">
         <f t="shared" si="1"/>
-        <v>1.5205034329435454</v>
+        <v>1.4209846471720606</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -59719,11 +59497,11 @@
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>1.9138490612912522</v>
+        <v>1.7372482640212745</v>
       </c>
       <c r="J41">
         <f t="shared" si="1"/>
-        <v>1.5549599325582766</v>
+        <v>1.4521219227074893</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -59750,11 +59528,11 @@
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>1.960575867892687</v>
+        <v>1.7796633453844997</v>
       </c>
       <c r="J42">
         <f t="shared" si="1"/>
-        <v>1.5899324240561186</v>
+        <v>1.4849037666393485</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -59781,11 +59559,11 @@
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>2.0065686815165673</v>
+        <v>1.8214121631160463</v>
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
-        <v>1.6118082158372202</v>
+        <v>1.5117454579901963</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -59812,11 +59590,11 @@
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>2.0394132773159783</v>
+        <v>1.8512260174000983</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>1.6373849911344134</v>
+        <v>1.5341508339462506</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -59843,11 +59621,11 @@
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>2.0597669495879138</v>
+        <v>1.8697015505735561</v>
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>1.6548163286085467</v>
+        <v>1.5544577002578666</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -59874,11 +59652,11 @@
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>2.0797776074892229</v>
+        <v>1.8878657210946728</v>
       </c>
       <c r="J46">
         <f t="shared" si="1"/>
-        <v>1.6721579122962091</v>
+        <v>1.5708762086693249</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -59905,11 +59683,11 @@
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>2.0995145674034936</v>
+        <v>1.9057814491641532</v>
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>1.6899419240642573</v>
+        <v>1.5874612370528673</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -59936,11 +59714,11 @@
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>2.1190469515265593</v>
+        <v>1.9235114787136616</v>
       </c>
       <c r="J48">
         <f t="shared" si="1"/>
-        <v>1.6944234170732169</v>
+        <v>1.5979741984392777</v>
       </c>
     </row>
   </sheetData>
@@ -59949,14 +59727,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FFB779-EF4C-4BE6-AA2E-1E56A3F285EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD6"/>
+      <selection activeCell="G10" sqref="G10:AM10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
   </cols>
@@ -60342,148 +60120,140 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <f>E9/$D$9</f>
-        <v>1.0461046190754191</v>
-      </c>
       <c r="F10">
-        <f t="shared" ref="F10:AM10" si="0">F9/$D$9</f>
-        <v>1.0922092381508381</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1.1383138572262572</v>
+        <f>G9/$F$9</f>
+        <v>1.0422122588465526</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>1.1844184763016765</v>
+        <f t="shared" ref="H10:AM10" si="0">H9/$F$9</f>
+        <v>1.0844245176931051</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>1.2305230953770956</v>
+        <v>1.1266367765396574</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>1.2830276174707531</v>
+        <v>1.1747086296788511</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>1.3355321395644106</v>
+        <v>1.2227804828180446</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>1.3880366616580682</v>
+        <v>1.2708523359572381</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>1.4405411837517259</v>
+        <v>1.3189241890964318</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>1.4930457058453834</v>
+        <v>1.3669960422356255</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>1.5455502279390412</v>
+        <v>1.415067895374819</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>1.5980547500326987</v>
+        <v>1.4631397485140125</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>1.6505592721263562</v>
+        <v>1.511211601653206</v>
       </c>
       <c r="R10">
         <f t="shared" si="0"/>
-        <v>1.703063794220014</v>
+        <v>1.5592834547923999</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
-        <v>1.7555683163136715</v>
+        <v>1.6073553079315934</v>
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>1.7932417110900554</v>
+        <v>1.6418481445241191</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>1.8309151058664392</v>
+        <v>1.6763409811166448</v>
       </c>
       <c r="V10">
         <f t="shared" si="0"/>
-        <v>1.8685885006428231</v>
+        <v>1.7108338177091704</v>
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
-        <v>1.906261895419207</v>
+        <v>1.7453266543016961</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>1.9439352901955906</v>
+        <v>1.7798194908942218</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>1.9816086849719743</v>
+        <v>1.8143123274867472</v>
       </c>
       <c r="Z10">
         <f t="shared" si="0"/>
-        <v>2.0192820797483582</v>
+        <v>1.8488051640792729</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
-        <v>2.056955474524742</v>
+        <v>1.8832980006717985</v>
       </c>
       <c r="AB10">
         <f t="shared" si="0"/>
-        <v>2.0946288693011259</v>
+        <v>1.9177908372643244</v>
       </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>2.1323022640775098</v>
+        <v>1.9522836738568501</v>
       </c>
       <c r="AD10">
         <f t="shared" si="0"/>
-        <v>2.1484451335253838</v>
+        <v>1.9670636893374045</v>
       </c>
       <c r="AE10">
         <f t="shared" si="0"/>
-        <v>2.1645880029732574</v>
+        <v>1.9818437048179587</v>
       </c>
       <c r="AF10">
         <f t="shared" si="0"/>
-        <v>2.1807308724211314</v>
+        <v>1.9966237202985133</v>
       </c>
       <c r="AG10">
         <f t="shared" si="0"/>
-        <v>2.196873741869005</v>
+        <v>2.0114037357790675</v>
       </c>
       <c r="AH10">
         <f t="shared" si="0"/>
-        <v>2.213016611316879</v>
+        <v>2.0261837512596221</v>
       </c>
       <c r="AI10">
         <f t="shared" si="0"/>
-        <v>2.229159480764753</v>
+        <v>2.0409637667401763</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="0"/>
-        <v>2.245302350212627</v>
+        <v>2.0557437822207305</v>
       </c>
       <c r="AK10">
         <f t="shared" si="0"/>
-        <v>2.261445219660501</v>
+        <v>2.0705237977012851</v>
       </c>
       <c r="AL10">
         <f t="shared" si="0"/>
-        <v>2.2775880891083746</v>
+        <v>2.0853038131818393</v>
       </c>
       <c r="AM10">
         <f t="shared" si="0"/>
-        <v>2.2937309585562486</v>
+        <v>2.100083828662394</v>
       </c>
     </row>
     <row r="25" ht="99" customHeight="1"/>

--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\trans\BCDTRtSY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Brazil\Model\InputData\trans\BCDTRtSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AF9BC3-2E4B-4F77-B19A-45B449B34D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742"/>
+    <workbookView xWindow="39405" yWindow="960" windowWidth="22515" windowHeight="8145" tabRatio="742" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -43,12 +44,14 @@
     <definedName name="ti_tbl_69" localSheetId="12">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -286,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1248,161 +1251,161 @@
     </xf>
   </cellXfs>
   <cellStyles count="155">
-    <cellStyle name="20% - Accent1 2" xfId="8"/>
-    <cellStyle name="20% - Accent2 2" xfId="9"/>
-    <cellStyle name="20% - Accent3 2" xfId="10"/>
-    <cellStyle name="20% - Accent4 2" xfId="11"/>
-    <cellStyle name="20% - Accent5 2" xfId="12"/>
-    <cellStyle name="20% - Accent6 2" xfId="13"/>
-    <cellStyle name="40% - Accent1 2" xfId="14"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3 2" xfId="16"/>
-    <cellStyle name="40% - Accent4 2" xfId="17"/>
-    <cellStyle name="40% - Accent5 2" xfId="18"/>
-    <cellStyle name="40% - Accent6 2" xfId="19"/>
-    <cellStyle name="60% - Accent1 2" xfId="20"/>
-    <cellStyle name="60% - Accent2 2" xfId="21"/>
-    <cellStyle name="60% - Accent3 2" xfId="22"/>
-    <cellStyle name="60% - Accent4 2" xfId="23"/>
-    <cellStyle name="60% - Accent5 2" xfId="24"/>
-    <cellStyle name="60% - Accent6 2" xfId="25"/>
-    <cellStyle name="Accent1 2" xfId="26"/>
-    <cellStyle name="Accent2 2" xfId="27"/>
-    <cellStyle name="Accent3 2" xfId="28"/>
-    <cellStyle name="Accent4 2" xfId="29"/>
-    <cellStyle name="Accent5 2" xfId="30"/>
-    <cellStyle name="Accent6 2" xfId="31"/>
-    <cellStyle name="Bad 2" xfId="32"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="33"/>
-    <cellStyle name="Calculation 2" xfId="34"/>
-    <cellStyle name="Check Cell 2" xfId="35"/>
-    <cellStyle name="Column heading" xfId="36"/>
-    <cellStyle name="Comma 2" xfId="37"/>
-    <cellStyle name="Comma 2 2" xfId="38"/>
-    <cellStyle name="Comma 3" xfId="39"/>
-    <cellStyle name="Comma 4" xfId="40"/>
-    <cellStyle name="Comma 5" xfId="41"/>
-    <cellStyle name="Comma 6" xfId="42"/>
-    <cellStyle name="Comma 7" xfId="43"/>
-    <cellStyle name="Comma 8" xfId="44"/>
-    <cellStyle name="Corner heading" xfId="45"/>
-    <cellStyle name="Currency 2" xfId="46"/>
-    <cellStyle name="Currency 3" xfId="47"/>
-    <cellStyle name="Currency 3 2" xfId="48"/>
-    <cellStyle name="Data" xfId="49"/>
-    <cellStyle name="Data 2" xfId="50"/>
-    <cellStyle name="Data no deci" xfId="51"/>
-    <cellStyle name="Data Superscript" xfId="52"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
-    <cellStyle name="Explanatory Text 2" xfId="54"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56"/>
-    <cellStyle name="Good 2" xfId="57"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Heading 1 2" xfId="59"/>
-    <cellStyle name="Heading 2 2" xfId="60"/>
-    <cellStyle name="Heading 3 2" xfId="61"/>
-    <cellStyle name="Heading 4 2" xfId="62"/>
-    <cellStyle name="Hed Side" xfId="63"/>
-    <cellStyle name="Hed Side 2" xfId="64"/>
-    <cellStyle name="Hed Side bold" xfId="65"/>
-    <cellStyle name="Hed Side Indent" xfId="66"/>
-    <cellStyle name="Hed Side Regular" xfId="67"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
-    <cellStyle name="Hed Top" xfId="69"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71"/>
+    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
     <cellStyle name="Hyperlink" xfId="154" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72"/>
-    <cellStyle name="Input 2" xfId="73"/>
-    <cellStyle name="Linked Cell 2" xfId="74"/>
-    <cellStyle name="Neutral 2" xfId="75"/>
+    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76"/>
-    <cellStyle name="Normal 11" xfId="77"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="78"/>
-    <cellStyle name="Normal 2 3" xfId="79"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Normal 3 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 2" xfId="82"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="84"/>
-    <cellStyle name="Normal 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 3 2" xfId="86"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
-    <cellStyle name="Normal 3 3 3" xfId="88"/>
-    <cellStyle name="Normal 3 4" xfId="89"/>
-    <cellStyle name="Normal 3 4 2" xfId="90"/>
-    <cellStyle name="Normal 3 5" xfId="91"/>
-    <cellStyle name="Normal 3 6" xfId="92"/>
-    <cellStyle name="Normal 3 7" xfId="93"/>
-    <cellStyle name="Normal 4" xfId="94"/>
-    <cellStyle name="Normal 4 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 2" xfId="96"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
-    <cellStyle name="Normal 4 2 3" xfId="98"/>
-    <cellStyle name="Normal 4 3" xfId="99"/>
-    <cellStyle name="Normal 4 3 2" xfId="100"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
-    <cellStyle name="Normal 4 3 3" xfId="102"/>
-    <cellStyle name="Normal 4 4" xfId="103"/>
-    <cellStyle name="Normal 4 4 2" xfId="104"/>
-    <cellStyle name="Normal 4 5" xfId="105"/>
-    <cellStyle name="Normal 4 6" xfId="106"/>
-    <cellStyle name="Normal 4 7" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 5 2" xfId="109"/>
-    <cellStyle name="Normal 5 3" xfId="110"/>
-    <cellStyle name="Normal 6" xfId="111"/>
-    <cellStyle name="Normal 6 2" xfId="112"/>
-    <cellStyle name="Normal 7" xfId="113"/>
-    <cellStyle name="Normal 7 2" xfId="114"/>
-    <cellStyle name="Normal 8" xfId="115"/>
-    <cellStyle name="Normal 9" xfId="116"/>
-    <cellStyle name="Note 2" xfId="117"/>
-    <cellStyle name="Note 2 2" xfId="118"/>
-    <cellStyle name="Output 2" xfId="119"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Parent row 2" xfId="120"/>
+    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
     <cellStyle name="Percent" xfId="153" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="121"/>
-    <cellStyle name="Percent 2 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 3 2" xfId="124"/>
-    <cellStyle name="Percent 4" xfId="125"/>
-    <cellStyle name="Reference" xfId="126"/>
-    <cellStyle name="Row heading" xfId="127"/>
-    <cellStyle name="Source Hed" xfId="128"/>
-    <cellStyle name="Source Letter" xfId="129"/>
-    <cellStyle name="Source Superscript" xfId="130"/>
-    <cellStyle name="Source Superscript 2" xfId="131"/>
-    <cellStyle name="Source Text" xfId="132"/>
-    <cellStyle name="Source Text 2" xfId="133"/>
-    <cellStyle name="State" xfId="134"/>
-    <cellStyle name="Superscript" xfId="135"/>
-    <cellStyle name="Table Data" xfId="136"/>
-    <cellStyle name="Table Head Top" xfId="137"/>
-    <cellStyle name="Table Hed Side" xfId="138"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Table title 2" xfId="139"/>
-    <cellStyle name="Title 2" xfId="140"/>
-    <cellStyle name="Title Text" xfId="141"/>
-    <cellStyle name="Title Text 1" xfId="142"/>
-    <cellStyle name="Title Text 2" xfId="143"/>
-    <cellStyle name="Title-1" xfId="144"/>
-    <cellStyle name="Title-2" xfId="145"/>
-    <cellStyle name="Title-3" xfId="146"/>
-    <cellStyle name="Total 2" xfId="147"/>
-    <cellStyle name="Warning Text 2" xfId="148"/>
-    <cellStyle name="Wrap" xfId="149"/>
-    <cellStyle name="Wrap Bold" xfId="150"/>
-    <cellStyle name="Wrap Title" xfId="151"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
+    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1672,6 +1675,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1707,6 +1727,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1882,11 +1919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -51132,8 +51169,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B17" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -51141,7 +51178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51676,7 +51713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
@@ -52211,14 +52248,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -53182,7 +53219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -54122,7 +54159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -54174,7 +54211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -54225,7 +54262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
@@ -56120,7 +56157,7 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12">
-        <f t="shared" ref="C26:AK26" si="0">SUM(D10:D19)</f>
+        <f t="shared" ref="D26:AK26" si="0">SUM(D10:D19)</f>
         <v>989775411.30000007</v>
       </c>
       <c r="E26" s="12">
@@ -56974,7 +57011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -57395,7 +57432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -57935,7 +57972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
@@ -58474,11 +58511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:J14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -59727,7 +59764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
